--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
   <si>
     <t>Nr.</t>
   </si>
@@ -132,6 +133,9 @@
     <t xml:space="preserve">Nico IST
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">6h / </t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +254,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C9E2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -435,7 +445,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -510,14 +520,73 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -540,71 +609,13 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -919,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +974,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -974,109 +985,109 @@
       <c r="E1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="61">
+      <c r="F1" s="63">
         <v>31.01</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="61">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="63">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="61">
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="63">
         <v>6.02</v>
       </c>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="61">
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="63">
         <v>7.02</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="61">
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="63">
         <v>19.02</v>
       </c>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="61">
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="63">
         <v>20.02</v>
       </c>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="61" t="s">
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="61" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="65"/>
+      <c r="BJ1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="62"/>
-      <c r="BP1" s="62"/>
-      <c r="BQ1" s="63"/>
-      <c r="BR1" s="61" t="s">
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="62"/>
-      <c r="BT1" s="62"/>
-      <c r="BU1" s="62"/>
-      <c r="BV1" s="62"/>
-      <c r="BW1" s="62"/>
-      <c r="BX1" s="62"/>
-      <c r="BY1" s="63"/>
-      <c r="BZ1" s="61" t="s">
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="64"/>
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="65"/>
+      <c r="BZ1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="62"/>
-      <c r="CB1" s="62"/>
-      <c r="CC1" s="62"/>
-      <c r="CD1" s="62"/>
-      <c r="CE1" s="62"/>
-      <c r="CF1" s="62"/>
-      <c r="CG1" s="63"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="64"/>
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="65"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1329,21 +1340,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="69">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
@@ -1366,10 +1377,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="43" t="s">
         <v>37</v>
       </c>
@@ -1387,10 +1398,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="27" t="s">
         <v>27</v>
       </c>
@@ -1406,10 +1417,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="43" t="s">
         <v>36</v>
       </c>
@@ -1495,16 +1506,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+      <c r="A7" s="69">
         <v>2</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="70"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="26" t="s">
         <v>25</v>
       </c>
@@ -1516,14 +1527,14 @@
       <c r="AC7" s="17"/>
       <c r="AD7" s="15"/>
       <c r="AK7" s="17"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="73"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="76"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="49"/>
       <c r="AT7" s="15"/>
       <c r="BA7" s="17"/>
       <c r="BB7" s="15"/>
@@ -1536,10 +1547,10 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="43" t="s">
         <v>37</v>
       </c>
@@ -1565,10 +1576,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="27" t="s">
         <v>27</v>
       </c>
@@ -1580,14 +1591,14 @@
       <c r="AC9" s="20"/>
       <c r="AD9" s="18"/>
       <c r="AK9" s="20"/>
-      <c r="AL9" s="81"/>
+      <c r="AL9" s="54"/>
       <c r="AM9" s="42"/>
       <c r="AN9" s="42"/>
       <c r="AO9" s="42"/>
       <c r="AP9" s="42"/>
       <c r="AQ9" s="42"/>
       <c r="AR9" s="42"/>
-      <c r="AS9" s="79"/>
+      <c r="AS9" s="52"/>
       <c r="AT9" s="18"/>
       <c r="BA9" s="20"/>
       <c r="BB9" s="18"/>
@@ -1600,10 +1611,10 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
@@ -1689,27 +1700,27 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58">
+      <c r="A11" s="69">
         <v>3</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="39" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="N11" s="82"/>
+      <c r="N11" s="55"/>
       <c r="U11" s="11"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="9"/>
       <c r="AK11" s="11"/>
@@ -1727,14 +1738,14 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="83"/>
+      <c r="N12" s="56"/>
       <c r="U12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AK12" s="13"/>
@@ -1746,14 +1757,14 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="84"/>
+      <c r="M13" s="57"/>
       <c r="U13" s="13"/>
       <c r="W13" s="42"/>
       <c r="X13" s="42"/>
@@ -1769,10 +1780,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="40" t="s">
         <v>36</v>
       </c>
@@ -1784,7 +1795,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="80"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -1858,16 +1869,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
+      <c r="A15" s="69">
         <v>4</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="70"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1892,10 +1903,10 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="43" t="s">
         <v>37</v>
       </c>
@@ -1920,17 +1931,17 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="73"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="46"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
       <c r="U17" s="20"/>
@@ -1952,16 +1963,16 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="43" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="74"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="19"/>
@@ -2041,21 +2052,21 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
+      <c r="A19" s="69">
         <v>5</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="64"/>
+      <c r="C19" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="66"/>
       <c r="E19" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="N19" s="82"/>
+      <c r="N19" s="55"/>
       <c r="U19" s="11"/>
       <c r="V19" s="9"/>
       <c r="AC19" s="11"/>
@@ -2075,14 +2086,14 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="80"/>
+      <c r="N20" s="53"/>
       <c r="U20" s="13"/>
       <c r="AC20" s="13"/>
       <c r="AK20" s="13"/>
@@ -2094,19 +2105,19 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
       <c r="U21" s="13"/>
       <c r="AC21" s="13"/>
       <c r="AK21" s="13"/>
@@ -2118,10 +2129,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="43" t="s">
         <v>36</v>
       </c>
@@ -2130,10 +2141,10 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="12"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="87"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -2207,28 +2218,28 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
+      <c r="A23" s="69">
         <v>6</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="15"/>
       <c r="M23" s="17"/>
       <c r="N23" s="15"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="75"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="48"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="15"/>
       <c r="AK23" s="17"/>
@@ -2246,10 +2257,10 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="43" t="s">
         <v>37</v>
       </c>
@@ -2275,10 +2286,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
@@ -2289,8 +2300,8 @@
       <c r="R25" s="42"/>
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="81"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="54"/>
       <c r="AC25" s="20"/>
       <c r="AD25" s="18"/>
       <c r="AK25" s="20"/>
@@ -2308,10 +2319,10 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="43" t="s">
         <v>36</v>
       </c>
@@ -2397,16 +2408,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
+      <c r="A27" s="69">
         <v>7</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="64"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="26" t="s">
         <v>25</v>
       </c>
@@ -2415,11 +2426,11 @@
       <c r="N27" s="9"/>
       <c r="U27" s="11"/>
       <c r="V27" s="9"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="73"/>
-      <c r="AC27" s="76"/>
-      <c r="AD27" s="75"/>
-      <c r="AE27" s="73"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="46"/>
       <c r="AK27" s="11"/>
       <c r="AL27" s="9"/>
       <c r="AS27" s="11"/>
@@ -2435,10 +2446,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="43" t="s">
         <v>37</v>
       </c>
@@ -2454,10 +2465,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2465,7 +2476,7 @@
       <c r="U29" s="13"/>
       <c r="AA29" s="42"/>
       <c r="AB29" s="42"/>
-      <c r="AC29" s="79"/>
+      <c r="AC29" s="52"/>
       <c r="AD29" s="42"/>
       <c r="AE29" s="42"/>
       <c r="AK29" s="13"/>
@@ -2477,10 +2488,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="43" t="s">
         <v>36</v>
       </c>
@@ -2566,16 +2577,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58">
+      <c r="A31" s="69">
         <v>8</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="70"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
@@ -2586,9 +2597,9 @@
       <c r="V31" s="15"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="15"/>
-      <c r="AF31" s="73"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="73"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
       <c r="AK31" s="17"/>
       <c r="AL31" s="15"/>
       <c r="AS31" s="17"/>
@@ -2604,10 +2615,10 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="43" t="s">
         <v>37</v>
       </c>
@@ -2633,10 +2644,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="27" t="s">
         <v>27</v>
       </c>
@@ -2665,10 +2676,10 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="43" t="s">
         <v>36</v>
       </c>
@@ -2754,16 +2765,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58">
+      <c r="A35" s="69">
         <v>9</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="64"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="26" t="s">
         <v>25</v>
       </c>
@@ -2778,10 +2789,10 @@
       <c r="AL35" s="9"/>
       <c r="AS35" s="11"/>
       <c r="AT35" s="9"/>
-      <c r="AW35" s="73"/>
-      <c r="AX35" s="73"/>
-      <c r="AY35" s="73"/>
-      <c r="AZ35" s="73"/>
+      <c r="AW35" s="46"/>
+      <c r="AX35" s="46"/>
+      <c r="AY35" s="46"/>
+      <c r="AZ35" s="46"/>
       <c r="BA35" s="11"/>
       <c r="BB35" s="9"/>
       <c r="BI35" s="11"/>
@@ -2793,10 +2804,10 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="43" t="s">
         <v>37</v>
       </c>
@@ -2812,10 +2823,10 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
       <c r="E37" s="27" t="s">
         <v>27</v>
       </c>
@@ -2835,10 +2846,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="43" t="s">
         <v>36</v>
       </c>
@@ -2924,16 +2935,16 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58">
+      <c r="A39" s="69">
         <v>10</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="70"/>
+      <c r="D39" s="74"/>
       <c r="E39" s="26" t="s">
         <v>25</v>
       </c>
@@ -2947,9 +2958,9 @@
       <c r="AK39" s="17"/>
       <c r="AL39" s="15"/>
       <c r="AS39" s="17"/>
-      <c r="AT39" s="75"/>
-      <c r="AU39" s="73"/>
-      <c r="AV39" s="73"/>
+      <c r="AT39" s="48"/>
+      <c r="AU39" s="46"/>
+      <c r="AV39" s="46"/>
       <c r="BA39" s="17"/>
       <c r="BB39" s="15"/>
       <c r="BI39" s="17"/>
@@ -2961,10 +2972,10 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="76"/>
       <c r="E40" s="43" t="s">
         <v>37</v>
       </c>
@@ -2990,10 +3001,10 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="72"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
       <c r="E41" s="27" t="s">
         <v>27</v>
       </c>
@@ -3007,7 +3018,7 @@
       <c r="AK41" s="20"/>
       <c r="AL41" s="18"/>
       <c r="AS41" s="20"/>
-      <c r="AT41" s="81"/>
+      <c r="AT41" s="54"/>
       <c r="AU41" s="42"/>
       <c r="AV41" s="42"/>
       <c r="BA41" s="20"/>
@@ -3021,10 +3032,10 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
       <c r="E42" s="43" t="s">
         <v>36</v>
       </c>
@@ -3110,23 +3121,23 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="58">
+      <c r="A43" s="69">
         <v>11</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="64"/>
+      <c r="C43" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="66"/>
       <c r="E43" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="73"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="46"/>
       <c r="U43" s="11"/>
       <c r="V43" s="9"/>
       <c r="AC43" s="11"/>
@@ -3146,14 +3157,15 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
       <c r="E44" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="86"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="23"/>
       <c r="U44" s="13"/>
       <c r="AC44" s="13"/>
       <c r="AK44" s="13"/>
@@ -3165,10 +3177,10 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
       <c r="E45" s="27" t="s">
         <v>27</v>
       </c>
@@ -3184,10 +3196,10 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
       <c r="E46" s="43" t="s">
         <v>36</v>
       </c>
@@ -3273,16 +3285,16 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="58">
+      <c r="A47" s="69">
         <v>12</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="70"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="26" t="s">
         <v>25</v>
       </c>
@@ -3308,10 +3320,10 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="72"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="43" t="s">
         <v>37</v>
       </c>
@@ -3337,10 +3349,10 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="72"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="76"/>
       <c r="E49" s="27" t="s">
         <v>27</v>
       </c>
@@ -3366,10 +3378,10 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
       <c r="E50" s="43" t="s">
         <v>36</v>
       </c>
@@ -3455,16 +3467,16 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58">
+      <c r="A51" s="69">
         <v>13</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="64"/>
+      <c r="D51" s="66"/>
       <c r="E51" s="26" t="s">
         <v>25</v>
       </c>
@@ -3490,10 +3502,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
       <c r="E52" s="43" t="s">
         <v>37</v>
       </c>
@@ -3509,10 +3521,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
       <c r="E53" s="27" t="s">
         <v>27</v>
       </c>
@@ -3528,10 +3540,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
       <c r="E54" s="43" t="s">
         <v>36</v>
       </c>
@@ -3617,21 +3629,21 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58">
+      <c r="A55" s="69">
         <v>14</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B55" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="C55" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="70"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="75"/>
-      <c r="G55" s="73"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="46"/>
       <c r="M55" s="17"/>
       <c r="N55" s="15"/>
       <c r="U55" s="17"/>
@@ -3653,14 +3665,14 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="72"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="76"/>
       <c r="E56" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="74"/>
+      <c r="F56" s="47"/>
       <c r="M56" s="20"/>
       <c r="N56" s="18"/>
       <c r="U56" s="20"/>
@@ -3682,15 +3694,15 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="72"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
       <c r="E57" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="75"/>
-      <c r="G57" s="73"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="46"/>
       <c r="M57" s="20"/>
       <c r="N57" s="18"/>
       <c r="U57" s="20"/>
@@ -3712,14 +3724,14 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="74"/>
+      <c r="F58" s="47"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -3801,14 +3813,14 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58">
+      <c r="A59" s="69">
         <v>15</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
       <c r="E59" s="26" t="s">
         <v>25</v>
       </c>
@@ -3834,10 +3846,10 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="43" t="s">
         <v>37</v>
       </c>
@@ -3853,10 +3865,10 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="27" t="s">
         <v>27</v>
       </c>
@@ -3872,10 +3884,10 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="43" t="s">
         <v>36</v>
       </c>
@@ -3961,12 +3973,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="52" t="s">
+      <c r="A63" s="62"/>
+      <c r="B63" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
@@ -4052,10 +4064,10 @@
       <c r="CG63" s="37"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -4140,6 +4152,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="BJ1:BQ1"/>
@@ -4156,51 +4213,6 @@
     <mergeCell ref="C47:D50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="6240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -534,24 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -560,33 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -609,13 +565,57 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -985,109 +985,109 @@
       <c r="E1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="63">
+      <c r="F1" s="82">
         <v>31.01</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="63">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="82">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="63">
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="82">
         <v>6.02</v>
       </c>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="63">
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="82">
         <v>7.02</v>
       </c>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="63">
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="82">
         <v>19.02</v>
       </c>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="63">
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="82">
         <v>20.02</v>
       </c>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="65"/>
-      <c r="BJ1" s="63" t="s">
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
+      <c r="BE1" s="83"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="63" t="s">
+      <c r="BK1" s="83"/>
+      <c r="BL1" s="83"/>
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="83"/>
+      <c r="BO1" s="83"/>
+      <c r="BP1" s="83"/>
+      <c r="BQ1" s="84"/>
+      <c r="BR1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="64"/>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="63" t="s">
+      <c r="BS1" s="83"/>
+      <c r="BT1" s="83"/>
+      <c r="BU1" s="83"/>
+      <c r="BV1" s="83"/>
+      <c r="BW1" s="83"/>
+      <c r="BX1" s="83"/>
+      <c r="BY1" s="84"/>
+      <c r="BZ1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="64"/>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="65"/>
+      <c r="CA1" s="83"/>
+      <c r="CB1" s="83"/>
+      <c r="CC1" s="83"/>
+      <c r="CD1" s="83"/>
+      <c r="CE1" s="83"/>
+      <c r="CF1" s="83"/>
+      <c r="CG1" s="84"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
+      <c r="A2" s="81"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1340,21 +1340,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
@@ -1377,10 +1377,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="43" t="s">
         <v>37</v>
       </c>
@@ -1398,10 +1398,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="27" t="s">
         <v>27</v>
       </c>
@@ -1417,10 +1417,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="43" t="s">
         <v>36</v>
       </c>
@@ -1506,16 +1506,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="26" t="s">
         <v>25</v>
       </c>
@@ -1547,10 +1547,10 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="43" t="s">
         <v>37</v>
       </c>
@@ -1576,10 +1576,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="27" t="s">
         <v>27</v>
       </c>
@@ -1611,10 +1611,10 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
@@ -1700,16 +1700,16 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69">
+      <c r="A11" s="78">
         <v>3</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="39" t="s">
         <v>25</v>
       </c>
@@ -1738,10 +1738,10 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="40" t="s">
         <v>26</v>
       </c>
@@ -1757,10 +1757,10 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="41" t="s">
         <v>27</v>
       </c>
@@ -1780,10 +1780,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="40" t="s">
         <v>36</v>
       </c>
@@ -1869,16 +1869,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69">
+      <c r="A15" s="78">
         <v>4</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1903,10 +1903,10 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="43" t="s">
         <v>37</v>
       </c>
@@ -1931,16 +1931,16 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="46"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -1963,10 +1963,10 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="43" t="s">
         <v>36</v>
       </c>
@@ -2052,16 +2052,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="78">
         <v>5</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="66"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="26" t="s">
         <v>25</v>
       </c>
@@ -2086,10 +2086,10 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="43" t="s">
         <v>37</v>
       </c>
@@ -2105,10 +2105,10 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
@@ -2129,10 +2129,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="43" t="s">
         <v>36</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="K22" s="50"/>
       <c r="L22" s="50"/>
       <c r="M22" s="51"/>
-      <c r="N22" s="87"/>
+      <c r="N22" s="60"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -2218,16 +2218,16 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69">
+      <c r="A23" s="78">
         <v>6</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="26" t="s">
         <v>25</v>
       </c>
@@ -2257,10 +2257,10 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="43" t="s">
         <v>37</v>
       </c>
@@ -2286,10 +2286,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
@@ -2319,10 +2319,10 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="43" t="s">
         <v>36</v>
       </c>
@@ -2408,16 +2408,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69">
+      <c r="A27" s="78">
         <v>7</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="66"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="26" t="s">
         <v>25</v>
       </c>
@@ -2446,10 +2446,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="43" t="s">
         <v>37</v>
       </c>
@@ -2465,10 +2465,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2488,10 +2488,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="43" t="s">
         <v>36</v>
       </c>
@@ -2577,16 +2577,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69">
+      <c r="A31" s="78">
         <v>8</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="74"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
@@ -2615,10 +2615,10 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="43" t="s">
         <v>37</v>
       </c>
@@ -2644,10 +2644,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="27" t="s">
         <v>27</v>
       </c>
@@ -2676,10 +2676,10 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="43" t="s">
         <v>36</v>
       </c>
@@ -2765,16 +2765,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69">
+      <c r="A35" s="78">
         <v>9</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="66"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="26" t="s">
         <v>25</v>
       </c>
@@ -2804,10 +2804,10 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="43" t="s">
         <v>37</v>
       </c>
@@ -2823,10 +2823,10 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="27" t="s">
         <v>27</v>
       </c>
@@ -2846,10 +2846,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="43" t="s">
         <v>36</v>
       </c>
@@ -2935,16 +2935,16 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="69">
+      <c r="A39" s="78">
         <v>10</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="74"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="26" t="s">
         <v>25</v>
       </c>
@@ -2972,10 +2972,10 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="76"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="43" t="s">
         <v>37</v>
       </c>
@@ -3001,10 +3001,10 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="27" t="s">
         <v>27</v>
       </c>
@@ -3032,10 +3032,10 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="43" t="s">
         <v>36</v>
       </c>
@@ -3121,16 +3121,16 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="69">
+      <c r="A43" s="78">
         <v>11</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="66"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="26" t="s">
         <v>25</v>
       </c>
@@ -3157,10 +3157,10 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="43" t="s">
         <v>37</v>
       </c>
@@ -3177,10 +3177,10 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
       <c r="E45" s="27" t="s">
         <v>27</v>
       </c>
@@ -3196,10 +3196,10 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="43" t="s">
         <v>36</v>
       </c>
@@ -3285,16 +3285,16 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="69">
+      <c r="A47" s="78">
         <v>12</v>
       </c>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="74"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="26" t="s">
         <v>25</v>
       </c>
@@ -3320,10 +3320,10 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="76"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="43" t="s">
         <v>37</v>
       </c>
@@ -3349,10 +3349,10 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="76"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="27" t="s">
         <v>27</v>
       </c>
@@ -3378,10 +3378,10 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="43" t="s">
         <v>36</v>
       </c>
@@ -3467,16 +3467,16 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
+      <c r="A51" s="78">
         <v>13</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="66"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="26" t="s">
         <v>25</v>
       </c>
@@ -3502,10 +3502,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
       <c r="E52" s="43" t="s">
         <v>37</v>
       </c>
@@ -3521,10 +3521,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
       <c r="E53" s="27" t="s">
         <v>27</v>
       </c>
@@ -3540,10 +3540,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="43" t="s">
         <v>36</v>
       </c>
@@ -3629,16 +3629,16 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="69">
+      <c r="A55" s="78">
         <v>14</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B55" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="74"/>
+      <c r="D55" s="72"/>
       <c r="E55" s="26" t="s">
         <v>25</v>
       </c>
@@ -3665,10 +3665,10 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="76"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="43" t="s">
         <v>37</v>
       </c>
@@ -3694,10 +3694,10 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="76"/>
+      <c r="A57" s="78"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="27" t="s">
         <v>27</v>
       </c>
@@ -3724,10 +3724,10 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
+      <c r="A58" s="78"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="43" t="s">
         <v>36</v>
       </c>
@@ -3813,14 +3813,14 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="69">
+      <c r="A59" s="78">
         <v>15</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="26" t="s">
         <v>25</v>
       </c>
@@ -3846,10 +3846,10 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
       <c r="E60" s="43" t="s">
         <v>37</v>
       </c>
@@ -3865,10 +3865,10 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="27" t="s">
         <v>27</v>
       </c>
@@ -3884,10 +3884,10 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="43" t="s">
         <v>36</v>
       </c>
@@ -3973,12 +3973,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-      <c r="B63" s="81" t="s">
+      <c r="A63" s="87"/>
+      <c r="B63" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
@@ -4064,10 +4064,10 @@
       <c r="CG63" s="37"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -4152,51 +4152,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="BJ1:BQ1"/>
@@ -4213,6 +4168,51 @@
     <mergeCell ref="C47:D50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,12 +254,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C9E2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -445,7 +439,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -534,7 +528,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -543,6 +554,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -565,56 +603,11 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -931,7 +924,7 @@
   <dimension ref="A1:CG64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +967,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -985,109 +978,109 @@
       <c r="E1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="82">
+      <c r="F1" s="63">
         <v>31.01</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="63">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="82">
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="63">
         <v>6.02</v>
       </c>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="82">
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="63">
         <v>7.02</v>
       </c>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="82">
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="63">
         <v>19.02</v>
       </c>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="82">
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="63">
         <v>20.02</v>
       </c>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="82" t="s">
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="82" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="65"/>
+      <c r="BJ1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="BK1" s="83"/>
-      <c r="BL1" s="83"/>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="83"/>
-      <c r="BQ1" s="84"/>
-      <c r="BR1" s="82" t="s">
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="83"/>
-      <c r="BT1" s="83"/>
-      <c r="BU1" s="83"/>
-      <c r="BV1" s="83"/>
-      <c r="BW1" s="83"/>
-      <c r="BX1" s="83"/>
-      <c r="BY1" s="84"/>
-      <c r="BZ1" s="82" t="s">
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="64"/>
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="65"/>
+      <c r="BZ1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="83"/>
-      <c r="CB1" s="83"/>
-      <c r="CC1" s="83"/>
-      <c r="CD1" s="83"/>
-      <c r="CE1" s="83"/>
-      <c r="CF1" s="83"/>
-      <c r="CG1" s="84"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64"/>
+      <c r="CD1" s="64"/>
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64"/>
+      <c r="CG1" s="65"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1340,21 +1333,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
+      <c r="A3" s="69">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
@@ -1377,10 +1370,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="43" t="s">
         <v>37</v>
       </c>
@@ -1398,10 +1391,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="27" t="s">
         <v>27</v>
       </c>
@@ -1417,10 +1410,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="43" t="s">
         <v>36</v>
       </c>
@@ -1506,16 +1499,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="69">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="26" t="s">
         <v>25</v>
       </c>
@@ -1547,10 +1540,10 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="43" t="s">
         <v>37</v>
       </c>
@@ -1576,10 +1569,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="27" t="s">
         <v>27</v>
       </c>
@@ -1611,10 +1604,10 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
@@ -1700,16 +1693,16 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="69">
         <v>3</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="39" t="s">
         <v>25</v>
       </c>
@@ -1738,14 +1731,15 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="40" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="56"/>
+      <c r="O12" s="23"/>
       <c r="U12" s="13"/>
       <c r="AC12" s="13"/>
       <c r="AK12" s="13"/>
@@ -1757,10 +1751,10 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="41" t="s">
         <v>27</v>
       </c>
@@ -1780,10 +1774,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="40" t="s">
         <v>36</v>
       </c>
@@ -1796,7 +1790,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="53"/>
-      <c r="O14" s="12"/>
+      <c r="O14" s="23"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
@@ -1869,16 +1863,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="69">
         <v>4</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="72"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1903,10 +1897,10 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="43" t="s">
         <v>37</v>
       </c>
@@ -1931,16 +1925,16 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="46"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -1963,10 +1957,10 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="43" t="s">
         <v>36</v>
       </c>
@@ -2052,16 +2046,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="69">
         <v>5</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="26" t="s">
         <v>25</v>
       </c>
@@ -2086,10 +2080,10 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="43" t="s">
         <v>37</v>
       </c>
@@ -2105,10 +2099,10 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
@@ -2129,10 +2123,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="43" t="s">
         <v>36</v>
       </c>
@@ -2144,10 +2138,10 @@
       <c r="K22" s="50"/>
       <c r="L22" s="50"/>
       <c r="M22" s="51"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
@@ -2218,16 +2212,16 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="69">
         <v>6</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="26" t="s">
         <v>25</v>
       </c>
@@ -2257,16 +2251,18 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="43" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="18"/>
       <c r="M24" s="20"/>
       <c r="N24" s="18"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
       <c r="U24" s="20"/>
       <c r="V24" s="18"/>
       <c r="AC24" s="20"/>
@@ -2286,10 +2282,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
@@ -2319,10 +2315,10 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="43" t="s">
         <v>36</v>
       </c>
@@ -2337,9 +2333,8 @@
       <c r="N26" s="18"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
       <c r="T26" s="19"/>
       <c r="U26" s="20"/>
       <c r="V26" s="18"/>
@@ -2408,16 +2403,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78">
+      <c r="A27" s="69">
         <v>7</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="26" t="s">
         <v>25</v>
       </c>
@@ -2446,10 +2441,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="43" t="s">
         <v>37</v>
       </c>
@@ -2465,10 +2460,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2488,10 +2483,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="43" t="s">
         <v>36</v>
       </c>
@@ -2577,16 +2572,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78">
+      <c r="A31" s="69">
         <v>8</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="72"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
@@ -2615,10 +2610,10 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="43" t="s">
         <v>37</v>
       </c>
@@ -2644,10 +2639,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="27" t="s">
         <v>27</v>
       </c>
@@ -2676,10 +2671,10 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="43" t="s">
         <v>36</v>
       </c>
@@ -2765,16 +2760,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="78">
+      <c r="A35" s="69">
         <v>9</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="61"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="26" t="s">
         <v>25</v>
       </c>
@@ -2804,10 +2799,10 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="43" t="s">
         <v>37</v>
       </c>
@@ -2823,10 +2818,10 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
       <c r="E37" s="27" t="s">
         <v>27</v>
       </c>
@@ -2846,10 +2841,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="43" t="s">
         <v>36</v>
       </c>
@@ -2935,16 +2930,16 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78">
+      <c r="A39" s="69">
         <v>10</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="72"/>
+      <c r="D39" s="74"/>
       <c r="E39" s="26" t="s">
         <v>25</v>
       </c>
@@ -2972,10 +2967,10 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="76"/>
       <c r="E40" s="43" t="s">
         <v>37</v>
       </c>
@@ -3001,10 +2996,10 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
       <c r="E41" s="27" t="s">
         <v>27</v>
       </c>
@@ -3032,10 +3027,10 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
       <c r="E42" s="43" t="s">
         <v>36</v>
       </c>
@@ -3121,16 +3116,16 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="78">
+      <c r="A43" s="69">
         <v>11</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="61"/>
+      <c r="D43" s="66"/>
       <c r="E43" s="26" t="s">
         <v>25</v>
       </c>
@@ -3157,10 +3152,10 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
       <c r="E44" s="43" t="s">
         <v>37</v>
       </c>
@@ -3177,10 +3172,10 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
       <c r="E45" s="27" t="s">
         <v>27</v>
       </c>
@@ -3196,10 +3191,10 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
       <c r="E46" s="43" t="s">
         <v>36</v>
       </c>
@@ -3285,16 +3280,16 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="78">
+      <c r="A47" s="69">
         <v>12</v>
       </c>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="72"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="26" t="s">
         <v>25</v>
       </c>
@@ -3320,10 +3315,10 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="74"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="43" t="s">
         <v>37</v>
       </c>
@@ -3349,10 +3344,10 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="74"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="76"/>
       <c r="E49" s="27" t="s">
         <v>27</v>
       </c>
@@ -3378,10 +3373,10 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
       <c r="E50" s="43" t="s">
         <v>36</v>
       </c>
@@ -3467,16 +3462,16 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="78">
+      <c r="A51" s="69">
         <v>13</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="61"/>
+      <c r="D51" s="66"/>
       <c r="E51" s="26" t="s">
         <v>25</v>
       </c>
@@ -3502,10 +3497,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
       <c r="E52" s="43" t="s">
         <v>37</v>
       </c>
@@ -3521,10 +3516,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
       <c r="E53" s="27" t="s">
         <v>27</v>
       </c>
@@ -3540,10 +3535,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
       <c r="E54" s="43" t="s">
         <v>36</v>
       </c>
@@ -3629,16 +3624,16 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78">
+      <c r="A55" s="69">
         <v>14</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="72"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="26" t="s">
         <v>25</v>
       </c>
@@ -3665,10 +3660,10 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="74"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="76"/>
       <c r="E56" s="43" t="s">
         <v>37</v>
       </c>
@@ -3694,10 +3689,10 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
       <c r="E57" s="27" t="s">
         <v>27</v>
       </c>
@@ -3724,10 +3719,10 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="43" t="s">
         <v>36</v>
       </c>
@@ -3813,14 +3808,14 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="78">
+      <c r="A59" s="69">
         <v>15</v>
       </c>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
       <c r="E59" s="26" t="s">
         <v>25</v>
       </c>
@@ -3846,10 +3841,10 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
       <c r="E60" s="43" t="s">
         <v>37</v>
       </c>
@@ -3865,10 +3860,10 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
       <c r="E61" s="27" t="s">
         <v>27</v>
       </c>
@@ -3884,10 +3879,10 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="43" t="s">
         <v>36</v>
       </c>
@@ -3973,12 +3968,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="87"/>
-      <c r="B63" s="67" t="s">
+      <c r="A63" s="62"/>
+      <c r="B63" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
@@ -4064,10 +4059,10 @@
       <c r="CG63" s="37"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="87"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -4152,6 +4147,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="BJ1:BQ1"/>
@@ -4168,51 +4208,6 @@
     <mergeCell ref="C47:D50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -528,24 +528,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -554,33 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -603,12 +558,58 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -923,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +968,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -978,109 +979,109 @@
       <c r="E1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="63">
+      <c r="F1" s="81">
         <v>31.01</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="63">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="81">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="63">
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="81">
         <v>6.02</v>
       </c>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="63">
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="81">
         <v>7.02</v>
       </c>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="63">
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="81">
         <v>19.02</v>
       </c>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="63">
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="83"/>
+      <c r="AT1" s="81">
         <v>20.02</v>
       </c>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="63" t="s">
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="83"/>
+      <c r="BB1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="65"/>
-      <c r="BJ1" s="63" t="s">
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="83"/>
+      <c r="BJ1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="63" t="s">
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="82"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="82"/>
+      <c r="BP1" s="82"/>
+      <c r="BQ1" s="83"/>
+      <c r="BR1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="64"/>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="65"/>
-      <c r="BZ1" s="63" t="s">
+      <c r="BS1" s="82"/>
+      <c r="BT1" s="82"/>
+      <c r="BU1" s="82"/>
+      <c r="BV1" s="82"/>
+      <c r="BW1" s="82"/>
+      <c r="BX1" s="82"/>
+      <c r="BY1" s="83"/>
+      <c r="BZ1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="64"/>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="65"/>
+      <c r="CA1" s="82"/>
+      <c r="CB1" s="82"/>
+      <c r="CC1" s="82"/>
+      <c r="CD1" s="82"/>
+      <c r="CE1" s="82"/>
+      <c r="CF1" s="82"/>
+      <c r="CG1" s="83"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
+      <c r="A2" s="80"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1333,21 +1334,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69">
+      <c r="A3" s="77">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
@@ -1370,10 +1371,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="43" t="s">
         <v>37</v>
       </c>
@@ -1391,10 +1392,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="27" t="s">
         <v>27</v>
       </c>
@@ -1410,10 +1411,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="43" t="s">
         <v>36</v>
       </c>
@@ -1499,16 +1500,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="A7" s="77">
         <v>2</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="26" t="s">
         <v>25</v>
       </c>
@@ -1540,10 +1541,10 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="43" t="s">
         <v>37</v>
       </c>
@@ -1569,10 +1570,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="27" t="s">
         <v>27</v>
       </c>
@@ -1604,10 +1605,10 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
@@ -1693,16 +1694,16 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69">
+      <c r="A11" s="77">
         <v>3</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="39" t="s">
         <v>25</v>
       </c>
@@ -1731,10 +1732,10 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="40" t="s">
         <v>26</v>
       </c>
@@ -1751,10 +1752,10 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="41" t="s">
         <v>27</v>
       </c>
@@ -1774,10 +1775,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="40" t="s">
         <v>36</v>
       </c>
@@ -1863,16 +1864,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69">
+      <c r="A15" s="77">
         <v>4</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1897,10 +1898,10 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="43" t="s">
         <v>37</v>
       </c>
@@ -1925,16 +1926,16 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="46"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -1957,10 +1958,10 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="43" t="s">
         <v>36</v>
       </c>
@@ -2046,16 +2047,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="77">
         <v>5</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="66"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="26" t="s">
         <v>25</v>
       </c>
@@ -2080,10 +2081,10 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="43" t="s">
         <v>37</v>
       </c>
@@ -2099,10 +2100,10 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
@@ -2123,10 +2124,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="43" t="s">
         <v>36</v>
       </c>
@@ -2212,16 +2213,16 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69">
+      <c r="A23" s="77">
         <v>6</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="26" t="s">
         <v>25</v>
       </c>
@@ -2251,10 +2252,10 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="43" t="s">
         <v>37</v>
       </c>
@@ -2263,7 +2264,8 @@
       <c r="N24" s="18"/>
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
-      <c r="U24" s="20"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="87"/>
       <c r="V24" s="18"/>
       <c r="AC24" s="20"/>
       <c r="AD24" s="18"/>
@@ -2282,10 +2284,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
@@ -2315,10 +2317,10 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="43" t="s">
         <v>36</v>
       </c>
@@ -2335,8 +2337,8 @@
       <c r="P26" s="19"/>
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="20"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="87"/>
       <c r="V26" s="18"/>
       <c r="W26" s="19"/>
       <c r="X26" s="19"/>
@@ -2403,16 +2405,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69">
+      <c r="A27" s="77">
         <v>7</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="66"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="26" t="s">
         <v>25</v>
       </c>
@@ -2441,10 +2443,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="43" t="s">
         <v>37</v>
       </c>
@@ -2460,10 +2462,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2483,10 +2485,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="43" t="s">
         <v>36</v>
       </c>
@@ -2572,16 +2574,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69">
+      <c r="A31" s="77">
         <v>8</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="74"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
@@ -2610,10 +2612,10 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="43" t="s">
         <v>37</v>
       </c>
@@ -2639,10 +2641,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="27" t="s">
         <v>27</v>
       </c>
@@ -2671,10 +2673,10 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="43" t="s">
         <v>36</v>
       </c>
@@ -2760,16 +2762,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69">
+      <c r="A35" s="77">
         <v>9</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="66"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="26" t="s">
         <v>25</v>
       </c>
@@ -2799,10 +2801,10 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="43" t="s">
         <v>37</v>
       </c>
@@ -2818,10 +2820,10 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
       <c r="E37" s="27" t="s">
         <v>27</v>
       </c>
@@ -2841,10 +2843,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="43" t="s">
         <v>36</v>
       </c>
@@ -2930,16 +2932,16 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="69">
+      <c r="A39" s="77">
         <v>10</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="74"/>
+      <c r="D39" s="71"/>
       <c r="E39" s="26" t="s">
         <v>25</v>
       </c>
@@ -2967,10 +2969,10 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="76"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="43" t="s">
         <v>37</v>
       </c>
@@ -2996,10 +2998,10 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
+      <c r="A41" s="77"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="73"/>
       <c r="E41" s="27" t="s">
         <v>27</v>
       </c>
@@ -3027,10 +3029,10 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
       <c r="E42" s="43" t="s">
         <v>36</v>
       </c>
@@ -3116,16 +3118,16 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="69">
+      <c r="A43" s="77">
         <v>11</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="66"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="26" t="s">
         <v>25</v>
       </c>
@@ -3152,10 +3154,10 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="43" t="s">
         <v>37</v>
       </c>
@@ -3172,10 +3174,10 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="27" t="s">
         <v>27</v>
       </c>
@@ -3191,10 +3193,10 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="43" t="s">
         <v>36</v>
       </c>
@@ -3280,16 +3282,16 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="69">
+      <c r="A47" s="77">
         <v>12</v>
       </c>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="74"/>
+      <c r="D47" s="71"/>
       <c r="E47" s="26" t="s">
         <v>25</v>
       </c>
@@ -3315,10 +3317,10 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="76"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
       <c r="E48" s="43" t="s">
         <v>37</v>
       </c>
@@ -3344,10 +3346,10 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="76"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="27" t="s">
         <v>27</v>
       </c>
@@ -3373,10 +3375,10 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
+      <c r="A50" s="77"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="43" t="s">
         <v>36</v>
       </c>
@@ -3462,16 +3464,16 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="69">
+      <c r="A51" s="77">
         <v>13</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="66"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="26" t="s">
         <v>25</v>
       </c>
@@ -3497,10 +3499,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
+      <c r="A52" s="77"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
       <c r="E52" s="43" t="s">
         <v>37</v>
       </c>
@@ -3516,10 +3518,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
+      <c r="A53" s="77"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="27" t="s">
         <v>27</v>
       </c>
@@ -3535,10 +3537,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
       <c r="E54" s="43" t="s">
         <v>36</v>
       </c>
@@ -3624,16 +3626,16 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="69">
+      <c r="A55" s="77">
         <v>14</v>
       </c>
-      <c r="B55" s="78" t="s">
+      <c r="B55" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="74"/>
+      <c r="D55" s="71"/>
       <c r="E55" s="26" t="s">
         <v>25</v>
       </c>
@@ -3660,10 +3662,10 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="76"/>
+      <c r="A56" s="77"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
       <c r="E56" s="43" t="s">
         <v>37</v>
       </c>
@@ -3689,10 +3691,10 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="76"/>
+      <c r="A57" s="77"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="73"/>
       <c r="E57" s="27" t="s">
         <v>27</v>
       </c>
@@ -3719,10 +3721,10 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
       <c r="E58" s="43" t="s">
         <v>36</v>
       </c>
@@ -3808,14 +3810,14 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="69">
+      <c r="A59" s="77">
         <v>15</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="26" t="s">
         <v>25</v>
       </c>
@@ -3841,10 +3843,10 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="43" t="s">
         <v>37</v>
       </c>
@@ -3860,10 +3862,10 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
+      <c r="A61" s="77"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
       <c r="E61" s="27" t="s">
         <v>27</v>
       </c>
@@ -3879,10 +3881,10 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
+      <c r="A62" s="77"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
       <c r="E62" s="43" t="s">
         <v>36</v>
       </c>
@@ -3968,12 +3970,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-      <c r="B63" s="81" t="s">
+      <c r="A63" s="86"/>
+      <c r="B63" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="68"/>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
@@ -4059,10 +4061,10 @@
       <c r="CG63" s="37"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
+      <c r="A64" s="86"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -4147,51 +4149,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="BJ1:BQ1"/>
@@ -4208,6 +4165,51 @@
     <mergeCell ref="C47:D50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -528,6 +528,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -536,6 +555,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -558,58 +604,12 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +968,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -979,109 +979,109 @@
       <c r="E1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="81">
+      <c r="F1" s="64">
         <v>31.01</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="81">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="64">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="81">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="64">
         <v>6.02</v>
       </c>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="81">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="64">
         <v>7.02</v>
       </c>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="81">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="64">
         <v>19.02</v>
       </c>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="81">
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="64">
         <v>20.02</v>
       </c>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="82"/>
-      <c r="AW1" s="82"/>
-      <c r="AX1" s="82"/>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="82"/>
-      <c r="BA1" s="83"/>
-      <c r="BB1" s="81" t="s">
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BC1" s="82"/>
-      <c r="BD1" s="82"/>
-      <c r="BE1" s="82"/>
-      <c r="BF1" s="82"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="82"/>
-      <c r="BI1" s="83"/>
-      <c r="BJ1" s="81" t="s">
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BK1" s="82"/>
-      <c r="BL1" s="82"/>
-      <c r="BM1" s="82"/>
-      <c r="BN1" s="82"/>
-      <c r="BO1" s="82"/>
-      <c r="BP1" s="82"/>
-      <c r="BQ1" s="83"/>
-      <c r="BR1" s="81" t="s">
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="82"/>
-      <c r="BT1" s="82"/>
-      <c r="BU1" s="82"/>
-      <c r="BV1" s="82"/>
-      <c r="BW1" s="82"/>
-      <c r="BX1" s="82"/>
-      <c r="BY1" s="83"/>
-      <c r="BZ1" s="81" t="s">
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="65"/>
+      <c r="BX1" s="65"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="82"/>
-      <c r="CB1" s="82"/>
-      <c r="CC1" s="82"/>
-      <c r="CD1" s="82"/>
-      <c r="CE1" s="82"/>
-      <c r="CF1" s="82"/>
-      <c r="CG1" s="83"/>
+      <c r="CA1" s="65"/>
+      <c r="CB1" s="65"/>
+      <c r="CC1" s="65"/>
+      <c r="CD1" s="65"/>
+      <c r="CE1" s="65"/>
+      <c r="CF1" s="65"/>
+      <c r="CG1" s="66"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1334,21 +1334,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77">
+      <c r="A3" s="70">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="60"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
@@ -1371,10 +1371,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="43" t="s">
         <v>37</v>
       </c>
@@ -1392,10 +1392,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="27" t="s">
         <v>27</v>
       </c>
@@ -1411,10 +1411,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="43" t="s">
         <v>36</v>
       </c>
@@ -1500,16 +1500,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
+      <c r="A7" s="70">
         <v>2</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="71"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="26" t="s">
         <v>25</v>
       </c>
@@ -1541,10 +1541,10 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="43" t="s">
         <v>37</v>
       </c>
@@ -1570,10 +1570,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="27" t="s">
         <v>27</v>
       </c>
@@ -1605,10 +1605,10 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
@@ -1694,16 +1694,16 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
+      <c r="A11" s="70">
         <v>3</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="39" t="s">
         <v>25</v>
       </c>
@@ -1732,10 +1732,10 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="40" t="s">
         <v>26</v>
       </c>
@@ -1752,10 +1752,10 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="41" t="s">
         <v>27</v>
       </c>
@@ -1775,10 +1775,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="40" t="s">
         <v>36</v>
       </c>
@@ -1864,16 +1864,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77">
+      <c r="A15" s="70">
         <v>4</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="71"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1898,10 +1898,10 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="43" t="s">
         <v>37</v>
       </c>
@@ -1926,16 +1926,16 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="46"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -1958,10 +1958,10 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="43" t="s">
         <v>36</v>
       </c>
@@ -2047,16 +2047,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
+      <c r="A19" s="70">
         <v>5</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="26" t="s">
         <v>25</v>
       </c>
@@ -2081,10 +2081,10 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="43" t="s">
         <v>37</v>
       </c>
@@ -2100,10 +2100,10 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
@@ -2124,10 +2124,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="43" t="s">
         <v>36</v>
       </c>
@@ -2213,16 +2213,16 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
+      <c r="A23" s="70">
         <v>6</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="71"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="26" t="s">
         <v>25</v>
       </c>
@@ -2252,10 +2252,10 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="43" t="s">
         <v>37</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
-      <c r="U24" s="87"/>
+      <c r="U24" s="60"/>
       <c r="V24" s="18"/>
       <c r="AC24" s="20"/>
       <c r="AD24" s="18"/>
@@ -2284,10 +2284,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
@@ -2317,10 +2317,10 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="43" t="s">
         <v>36</v>
       </c>
@@ -2338,9 +2338,9 @@
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="19"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="23"/>
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
@@ -2405,16 +2405,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77">
+      <c r="A27" s="70">
         <v>7</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="60"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="26" t="s">
         <v>25</v>
       </c>
@@ -2443,10 +2443,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="43" t="s">
         <v>37</v>
       </c>
@@ -2462,10 +2462,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2485,10 +2485,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="43" t="s">
         <v>36</v>
       </c>
@@ -2574,16 +2574,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77">
+      <c r="A31" s="70">
         <v>8</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="71"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
@@ -2612,10 +2612,10 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="73"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="43" t="s">
         <v>37</v>
       </c>
@@ -2641,10 +2641,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="27" t="s">
         <v>27</v>
       </c>
@@ -2673,10 +2673,10 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="43" t="s">
         <v>36</v>
       </c>
@@ -2762,16 +2762,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77">
+      <c r="A35" s="70">
         <v>9</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="60"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="26" t="s">
         <v>25</v>
       </c>
@@ -2801,10 +2801,10 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="43" t="s">
         <v>37</v>
       </c>
@@ -2820,10 +2820,10 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="27" t="s">
         <v>27</v>
       </c>
@@ -2843,10 +2843,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="43" t="s">
         <v>36</v>
       </c>
@@ -2932,16 +2932,16 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77">
+      <c r="A39" s="70">
         <v>10</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="71"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="26" t="s">
         <v>25</v>
       </c>
@@ -2969,10 +2969,10 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="43" t="s">
         <v>37</v>
       </c>
@@ -2998,10 +2998,10 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="27" t="s">
         <v>27</v>
       </c>
@@ -3029,10 +3029,10 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="43" t="s">
         <v>36</v>
       </c>
@@ -3118,16 +3118,16 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="77">
+      <c r="A43" s="70">
         <v>11</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="60"/>
+      <c r="D43" s="67"/>
       <c r="E43" s="26" t="s">
         <v>25</v>
       </c>
@@ -3154,10 +3154,10 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
       <c r="E44" s="43" t="s">
         <v>37</v>
       </c>
@@ -3174,10 +3174,10 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="27" t="s">
         <v>27</v>
       </c>
@@ -3193,10 +3193,10 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
       <c r="E46" s="43" t="s">
         <v>36</v>
       </c>
@@ -3282,16 +3282,16 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="77">
+      <c r="A47" s="70">
         <v>12</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="71"/>
+      <c r="D47" s="75"/>
       <c r="E47" s="26" t="s">
         <v>25</v>
       </c>
@@ -3317,10 +3317,10 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="73"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="43" t="s">
         <v>37</v>
       </c>
@@ -3346,10 +3346,10 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="73"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="27" t="s">
         <v>27</v>
       </c>
@@ -3375,10 +3375,10 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="43" t="s">
         <v>36</v>
       </c>
@@ -3464,16 +3464,16 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="77">
+      <c r="A51" s="70">
         <v>13</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="60"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="26" t="s">
         <v>25</v>
       </c>
@@ -3499,10 +3499,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
       <c r="E52" s="43" t="s">
         <v>37</v>
       </c>
@@ -3518,10 +3518,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
       <c r="E53" s="27" t="s">
         <v>27</v>
       </c>
@@ -3537,10 +3537,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="77"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
       <c r="E54" s="43" t="s">
         <v>36</v>
       </c>
@@ -3626,16 +3626,16 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="77">
+      <c r="A55" s="70">
         <v>14</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C55" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="71"/>
+      <c r="D55" s="75"/>
       <c r="E55" s="26" t="s">
         <v>25</v>
       </c>
@@ -3662,10 +3662,10 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="73"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="43" t="s">
         <v>37</v>
       </c>
@@ -3691,10 +3691,10 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="27" t="s">
         <v>27</v>
       </c>
@@ -3721,10 +3721,10 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="77"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
       <c r="E58" s="43" t="s">
         <v>36</v>
       </c>
@@ -3810,14 +3810,14 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77">
+      <c r="A59" s="70">
         <v>15</v>
       </c>
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="26" t="s">
         <v>25</v>
       </c>
@@ -3843,10 +3843,10 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="43" t="s">
         <v>37</v>
       </c>
@@ -3862,10 +3862,10 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="77"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="27" t="s">
         <v>27</v>
       </c>
@@ -3881,10 +3881,10 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="43" t="s">
         <v>36</v>
       </c>
@@ -3970,12 +3970,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="86"/>
-      <c r="B63" s="66" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
@@ -4061,10 +4061,10 @@
       <c r="CG63" s="37"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -4149,6 +4149,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="BJ1:BQ1"/>
@@ -4165,51 +4210,6 @@
     <mergeCell ref="C47:D50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -529,24 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,33 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -604,12 +559,58 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -924,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM8" sqref="AM8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +969,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -979,109 +980,109 @@
       <c r="E1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="64">
+      <c r="F1" s="82">
         <v>31.01</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="64">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="82">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="64">
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="82">
         <v>6.02</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="64">
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="82">
         <v>7.02</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="64">
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="82">
         <v>19.02</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="64">
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="82">
         <v>20.02</v>
       </c>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="64" t="s">
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="64" t="s">
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
+      <c r="BE1" s="83"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="66"/>
-      <c r="BR1" s="64" t="s">
+      <c r="BK1" s="83"/>
+      <c r="BL1" s="83"/>
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="83"/>
+      <c r="BO1" s="83"/>
+      <c r="BP1" s="83"/>
+      <c r="BQ1" s="84"/>
+      <c r="BR1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="64" t="s">
+      <c r="BS1" s="83"/>
+      <c r="BT1" s="83"/>
+      <c r="BU1" s="83"/>
+      <c r="BV1" s="83"/>
+      <c r="BW1" s="83"/>
+      <c r="BX1" s="83"/>
+      <c r="BY1" s="84"/>
+      <c r="BZ1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="65"/>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="66"/>
+      <c r="CA1" s="83"/>
+      <c r="CB1" s="83"/>
+      <c r="CC1" s="83"/>
+      <c r="CD1" s="83"/>
+      <c r="CE1" s="83"/>
+      <c r="CF1" s="83"/>
+      <c r="CG1" s="84"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="81"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1334,21 +1335,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
@@ -1371,10 +1372,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="43" t="s">
         <v>37</v>
       </c>
@@ -1392,10 +1393,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="27" t="s">
         <v>27</v>
       </c>
@@ -1411,10 +1412,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="43" t="s">
         <v>36</v>
       </c>
@@ -1500,16 +1501,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="26" t="s">
         <v>25</v>
       </c>
@@ -1541,10 +1542,10 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="43" t="s">
         <v>37</v>
       </c>
@@ -1570,10 +1571,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="27" t="s">
         <v>27</v>
       </c>
@@ -1605,10 +1606,10 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
@@ -1694,16 +1695,16 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="78">
         <v>3</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="39" t="s">
         <v>25</v>
       </c>
@@ -1732,10 +1733,10 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="40" t="s">
         <v>26</v>
       </c>
@@ -1752,10 +1753,10 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="41" t="s">
         <v>27</v>
       </c>
@@ -1775,10 +1776,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="40" t="s">
         <v>36</v>
       </c>
@@ -1864,16 +1865,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+      <c r="A15" s="78">
         <v>4</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1898,10 +1899,10 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="43" t="s">
         <v>37</v>
       </c>
@@ -1926,16 +1927,16 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="46"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -1958,10 +1959,10 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="43" t="s">
         <v>36</v>
       </c>
@@ -2047,16 +2048,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+      <c r="A19" s="78">
         <v>5</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="26" t="s">
         <v>25</v>
       </c>
@@ -2081,10 +2082,10 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="43" t="s">
         <v>37</v>
       </c>
@@ -2100,10 +2101,10 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
@@ -2124,10 +2125,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="43" t="s">
         <v>36</v>
       </c>
@@ -2213,16 +2214,16 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="78">
         <v>6</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="26" t="s">
         <v>25</v>
       </c>
@@ -2252,10 +2253,10 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="43" t="s">
         <v>37</v>
       </c>
@@ -2266,8 +2267,13 @@
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
       <c r="U24" s="60"/>
-      <c r="V24" s="18"/>
-      <c r="AC24" s="20"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="51"/>
       <c r="AD24" s="18"/>
       <c r="AK24" s="20"/>
       <c r="AL24" s="18"/>
@@ -2284,10 +2290,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
@@ -2317,10 +2323,10 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="43" t="s">
         <v>36</v>
       </c>
@@ -2341,12 +2347,12 @@
       <c r="U26" s="60"/>
       <c r="V26" s="47"/>
       <c r="W26" s="23"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="20"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="60"/>
       <c r="AD26" s="18"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
@@ -2405,16 +2411,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
+      <c r="A27" s="78">
         <v>7</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="67"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="26" t="s">
         <v>25</v>
       </c>
@@ -2443,15 +2449,16 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="43" t="s">
         <v>37</v>
       </c>
       <c r="M28" s="13"/>
       <c r="U28" s="13"/>
+      <c r="AA28" s="23"/>
       <c r="AC28" s="13"/>
       <c r="AK28" s="13"/>
       <c r="AS28" s="13"/>
@@ -2462,10 +2469,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2485,10 +2492,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="43" t="s">
         <v>36</v>
       </c>
@@ -2574,16 +2581,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+      <c r="A31" s="78">
         <v>8</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
@@ -2612,10 +2619,10 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="43" t="s">
         <v>37</v>
       </c>
@@ -2641,10 +2648,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="27" t="s">
         <v>27</v>
       </c>
@@ -2673,10 +2680,10 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="43" t="s">
         <v>36</v>
       </c>
@@ -2762,16 +2769,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="78">
         <v>9</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="67"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="26" t="s">
         <v>25</v>
       </c>
@@ -2801,10 +2808,10 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="43" t="s">
         <v>37</v>
       </c>
@@ -2820,10 +2827,10 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="27" t="s">
         <v>27</v>
       </c>
@@ -2843,10 +2850,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="43" t="s">
         <v>36</v>
       </c>
@@ -2932,16 +2939,16 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="A39" s="78">
         <v>10</v>
       </c>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="75"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="26" t="s">
         <v>25</v>
       </c>
@@ -2969,10 +2976,10 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="43" t="s">
         <v>37</v>
       </c>
@@ -2998,10 +3005,10 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="27" t="s">
         <v>27</v>
       </c>
@@ -3029,10 +3036,10 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="43" t="s">
         <v>36</v>
       </c>
@@ -3118,16 +3125,16 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
+      <c r="A43" s="78">
         <v>11</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="67"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="26" t="s">
         <v>25</v>
       </c>
@@ -3154,10 +3161,10 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="43" t="s">
         <v>37</v>
       </c>
@@ -3174,10 +3181,10 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
       <c r="E45" s="27" t="s">
         <v>27</v>
       </c>
@@ -3193,10 +3200,10 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="43" t="s">
         <v>36</v>
       </c>
@@ -3282,16 +3289,16 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+      <c r="A47" s="78">
         <v>12</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="75"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="26" t="s">
         <v>25</v>
       </c>
@@ -3317,10 +3324,10 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="43" t="s">
         <v>37</v>
       </c>
@@ -3346,10 +3353,10 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="77"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="27" t="s">
         <v>27</v>
       </c>
@@ -3375,10 +3382,10 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="43" t="s">
         <v>36</v>
       </c>
@@ -3464,16 +3471,16 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
+      <c r="A51" s="78">
         <v>13</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="67"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="26" t="s">
         <v>25</v>
       </c>
@@ -3499,10 +3506,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
       <c r="E52" s="43" t="s">
         <v>37</v>
       </c>
@@ -3518,10 +3525,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
       <c r="E53" s="27" t="s">
         <v>27</v>
       </c>
@@ -3537,10 +3544,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="43" t="s">
         <v>36</v>
       </c>
@@ -3626,16 +3633,16 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="78">
         <v>14</v>
       </c>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="75"/>
+      <c r="D55" s="72"/>
       <c r="E55" s="26" t="s">
         <v>25</v>
       </c>
@@ -3662,10 +3669,10 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="43" t="s">
         <v>37</v>
       </c>
@@ -3691,10 +3698,10 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="77"/>
+      <c r="A57" s="78"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="27" t="s">
         <v>27</v>
       </c>
@@ -3721,10 +3728,10 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
+      <c r="A58" s="78"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="43" t="s">
         <v>36</v>
       </c>
@@ -3810,14 +3817,14 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
+      <c r="A59" s="78">
         <v>15</v>
       </c>
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="26" t="s">
         <v>25</v>
       </c>
@@ -3843,10 +3850,10 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
       <c r="E60" s="43" t="s">
         <v>37</v>
       </c>
@@ -3862,10 +3869,10 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="27" t="s">
         <v>27</v>
       </c>
@@ -3881,10 +3888,10 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="43" t="s">
         <v>36</v>
       </c>
@@ -3970,12 +3977,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="82" t="s">
+      <c r="A63" s="87"/>
+      <c r="B63" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
@@ -4061,10 +4068,10 @@
       <c r="CG63" s="37"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -4149,51 +4156,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="BJ1:BQ1"/>
@@ -4210,6 +4172,51 @@
     <mergeCell ref="C47:D50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -529,6 +529,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,6 +555,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -559,58 +604,12 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -926,7 +925,7 @@
   <dimension ref="A1:CG64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="B27" sqref="B27:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +968,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -980,109 +979,109 @@
       <c r="E1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="82">
+      <c r="F1" s="64">
         <v>31.01</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="64">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="82">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="64">
         <v>6.02</v>
       </c>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="82">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="64">
         <v>7.02</v>
       </c>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="82">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="64">
         <v>19.02</v>
       </c>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="82">
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="64">
         <v>20.02</v>
       </c>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="82" t="s">
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="82" t="s">
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BK1" s="83"/>
-      <c r="BL1" s="83"/>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="83"/>
-      <c r="BQ1" s="84"/>
-      <c r="BR1" s="82" t="s">
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="83"/>
-      <c r="BT1" s="83"/>
-      <c r="BU1" s="83"/>
-      <c r="BV1" s="83"/>
-      <c r="BW1" s="83"/>
-      <c r="BX1" s="83"/>
-      <c r="BY1" s="84"/>
-      <c r="BZ1" s="82" t="s">
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="65"/>
+      <c r="BX1" s="65"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="83"/>
-      <c r="CB1" s="83"/>
-      <c r="CC1" s="83"/>
-      <c r="CD1" s="83"/>
-      <c r="CE1" s="83"/>
-      <c r="CF1" s="83"/>
-      <c r="CG1" s="84"/>
+      <c r="CA1" s="65"/>
+      <c r="CB1" s="65"/>
+      <c r="CC1" s="65"/>
+      <c r="CD1" s="65"/>
+      <c r="CE1" s="65"/>
+      <c r="CF1" s="65"/>
+      <c r="CG1" s="66"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1335,21 +1334,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
+      <c r="A3" s="70">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
@@ -1372,10 +1371,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="43" t="s">
         <v>37</v>
       </c>
@@ -1393,10 +1392,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="27" t="s">
         <v>27</v>
       </c>
@@ -1412,10 +1411,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="43" t="s">
         <v>36</v>
       </c>
@@ -1501,16 +1500,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="70">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="26" t="s">
         <v>25</v>
       </c>
@@ -1542,10 +1541,10 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="43" t="s">
         <v>37</v>
       </c>
@@ -1571,10 +1570,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="27" t="s">
         <v>27</v>
       </c>
@@ -1606,10 +1605,10 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
@@ -1695,16 +1694,16 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="70">
         <v>3</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="39" t="s">
         <v>25</v>
       </c>
@@ -1733,16 +1732,18 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="40" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="56"/>
       <c r="O12" s="23"/>
       <c r="U12" s="13"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
       <c r="AC12" s="13"/>
       <c r="AK12" s="13"/>
       <c r="AS12" s="13"/>
@@ -1753,10 +1754,10 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="41" t="s">
         <v>27</v>
       </c>
@@ -1776,10 +1777,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="40" t="s">
         <v>36</v>
       </c>
@@ -1800,8 +1801,8 @@
       <c r="T14" s="12"/>
       <c r="U14" s="13"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
@@ -1865,16 +1866,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="70">
         <v>4</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="72"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1899,10 +1900,10 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="43" t="s">
         <v>37</v>
       </c>
@@ -1927,16 +1928,16 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="46"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -1959,10 +1960,10 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="43" t="s">
         <v>36</v>
       </c>
@@ -2048,16 +2049,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="70">
         <v>5</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="26" t="s">
         <v>25</v>
       </c>
@@ -2082,10 +2083,10 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="43" t="s">
         <v>37</v>
       </c>
@@ -2101,10 +2102,10 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
@@ -2125,10 +2126,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="43" t="s">
         <v>36</v>
       </c>
@@ -2214,16 +2215,16 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="70">
         <v>6</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="26" t="s">
         <v>25</v>
       </c>
@@ -2253,23 +2254,18 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="43" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="18"/>
       <c r="M24" s="20"/>
       <c r="N24" s="18"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="18"/>
       <c r="Y24" s="50"/>
       <c r="Z24" s="50"/>
       <c r="AB24" s="50"/>
@@ -2290,10 +2286,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
@@ -2323,10 +2319,10 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="43" t="s">
         <v>36</v>
       </c>
@@ -2341,13 +2337,12 @@
       <c r="N26" s="18"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
       <c r="Y26" s="23"/>
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
@@ -2411,16 +2406,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78">
+      <c r="A27" s="70">
         <v>7</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="26" t="s">
         <v>25</v>
       </c>
@@ -2449,10 +2444,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="43" t="s">
         <v>37</v>
       </c>
@@ -2469,10 +2464,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2492,10 +2487,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="43" t="s">
         <v>36</v>
       </c>
@@ -2581,16 +2576,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78">
+      <c r="A31" s="70">
         <v>8</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="72"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
@@ -2619,10 +2614,10 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="43" t="s">
         <v>37</v>
       </c>
@@ -2648,10 +2643,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="27" t="s">
         <v>27</v>
       </c>
@@ -2680,10 +2675,10 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="43" t="s">
         <v>36</v>
       </c>
@@ -2769,16 +2764,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="78">
+      <c r="A35" s="70">
         <v>9</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="61"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="26" t="s">
         <v>25</v>
       </c>
@@ -2808,10 +2803,10 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="43" t="s">
         <v>37</v>
       </c>
@@ -2827,10 +2822,10 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="27" t="s">
         <v>27</v>
       </c>
@@ -2850,10 +2845,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="43" t="s">
         <v>36</v>
       </c>
@@ -2939,16 +2934,16 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78">
+      <c r="A39" s="70">
         <v>10</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="72"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="26" t="s">
         <v>25</v>
       </c>
@@ -2976,10 +2971,10 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="43" t="s">
         <v>37</v>
       </c>
@@ -3005,10 +3000,10 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="27" t="s">
         <v>27</v>
       </c>
@@ -3036,10 +3031,10 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="43" t="s">
         <v>36</v>
       </c>
@@ -3125,16 +3120,16 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="78">
+      <c r="A43" s="70">
         <v>11</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="61"/>
+      <c r="D43" s="67"/>
       <c r="E43" s="26" t="s">
         <v>25</v>
       </c>
@@ -3161,10 +3156,10 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
       <c r="E44" s="43" t="s">
         <v>37</v>
       </c>
@@ -3181,10 +3176,10 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="27" t="s">
         <v>27</v>
       </c>
@@ -3200,10 +3195,10 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
       <c r="E46" s="43" t="s">
         <v>36</v>
       </c>
@@ -3289,16 +3284,16 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="78">
+      <c r="A47" s="70">
         <v>12</v>
       </c>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="72"/>
+      <c r="D47" s="75"/>
       <c r="E47" s="26" t="s">
         <v>25</v>
       </c>
@@ -3324,10 +3319,10 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="74"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="43" t="s">
         <v>37</v>
       </c>
@@ -3353,10 +3348,10 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="74"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="27" t="s">
         <v>27</v>
       </c>
@@ -3382,10 +3377,10 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="43" t="s">
         <v>36</v>
       </c>
@@ -3471,16 +3466,16 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="78">
+      <c r="A51" s="70">
         <v>13</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="61"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="26" t="s">
         <v>25</v>
       </c>
@@ -3506,10 +3501,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
       <c r="E52" s="43" t="s">
         <v>37</v>
       </c>
@@ -3525,10 +3520,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
       <c r="E53" s="27" t="s">
         <v>27</v>
       </c>
@@ -3544,10 +3539,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
       <c r="E54" s="43" t="s">
         <v>36</v>
       </c>
@@ -3633,16 +3628,16 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78">
+      <c r="A55" s="70">
         <v>14</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="72"/>
+      <c r="D55" s="75"/>
       <c r="E55" s="26" t="s">
         <v>25</v>
       </c>
@@ -3669,10 +3664,10 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="74"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="43" t="s">
         <v>37</v>
       </c>
@@ -3698,10 +3693,10 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="27" t="s">
         <v>27</v>
       </c>
@@ -3728,10 +3723,10 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
       <c r="E58" s="43" t="s">
         <v>36</v>
       </c>
@@ -3817,14 +3812,14 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="78">
+      <c r="A59" s="70">
         <v>15</v>
       </c>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="26" t="s">
         <v>25</v>
       </c>
@@ -3850,10 +3845,10 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="43" t="s">
         <v>37</v>
       </c>
@@ -3869,10 +3864,10 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="27" t="s">
         <v>27</v>
       </c>
@@ -3888,10 +3883,10 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="43" t="s">
         <v>36</v>
       </c>
@@ -3977,12 +3972,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="87"/>
-      <c r="B63" s="67" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
@@ -4068,10 +4063,10 @@
       <c r="CG63" s="37"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="87"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -4156,6 +4151,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="BJ1:BQ1"/>
@@ -4172,51 +4212,6 @@
     <mergeCell ref="C47:D50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -529,24 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,33 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -604,11 +559,56 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +968,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -979,109 +979,109 @@
       <c r="E1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="64">
+      <c r="F1" s="82">
         <v>31.01</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="64">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="82">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="64">
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="82">
         <v>6.02</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="64">
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="82">
         <v>7.02</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="64">
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="82">
         <v>19.02</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="64">
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="82">
         <v>20.02</v>
       </c>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="64" t="s">
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="64" t="s">
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
+      <c r="BE1" s="83"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="66"/>
-      <c r="BR1" s="64" t="s">
+      <c r="BK1" s="83"/>
+      <c r="BL1" s="83"/>
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="83"/>
+      <c r="BO1" s="83"/>
+      <c r="BP1" s="83"/>
+      <c r="BQ1" s="84"/>
+      <c r="BR1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="64" t="s">
+      <c r="BS1" s="83"/>
+      <c r="BT1" s="83"/>
+      <c r="BU1" s="83"/>
+      <c r="BV1" s="83"/>
+      <c r="BW1" s="83"/>
+      <c r="BX1" s="83"/>
+      <c r="BY1" s="84"/>
+      <c r="BZ1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="65"/>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="66"/>
+      <c r="CA1" s="83"/>
+      <c r="CB1" s="83"/>
+      <c r="CC1" s="83"/>
+      <c r="CD1" s="83"/>
+      <c r="CE1" s="83"/>
+      <c r="CF1" s="83"/>
+      <c r="CG1" s="84"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="81"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1334,21 +1334,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
@@ -1371,10 +1371,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="43" t="s">
         <v>37</v>
       </c>
@@ -1392,10 +1392,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="27" t="s">
         <v>27</v>
       </c>
@@ -1411,10 +1411,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="43" t="s">
         <v>36</v>
       </c>
@@ -1500,16 +1500,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="26" t="s">
         <v>25</v>
       </c>
@@ -1541,10 +1541,10 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="43" t="s">
         <v>37</v>
       </c>
@@ -1570,10 +1570,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="27" t="s">
         <v>27</v>
       </c>
@@ -1605,10 +1605,10 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
@@ -1694,16 +1694,16 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="78">
         <v>3</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="39" t="s">
         <v>25</v>
       </c>
@@ -1732,16 +1732,17 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="40" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="56"/>
       <c r="O12" s="23"/>
       <c r="U12" s="13"/>
+      <c r="V12" s="23"/>
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="AC12" s="13"/>
@@ -1754,10 +1755,10 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="41" t="s">
         <v>27</v>
       </c>
@@ -1777,10 +1778,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="40" t="s">
         <v>36</v>
       </c>
@@ -1800,7 +1801,7 @@
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="12"/>
+      <c r="V14" s="23"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="12"/>
@@ -1866,16 +1867,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+      <c r="A15" s="78">
         <v>4</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1900,10 +1901,10 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="43" t="s">
         <v>37</v>
       </c>
@@ -1928,16 +1929,16 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="46"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -1960,10 +1961,10 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="43" t="s">
         <v>36</v>
       </c>
@@ -2049,16 +2050,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+      <c r="A19" s="78">
         <v>5</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="26" t="s">
         <v>25</v>
       </c>
@@ -2083,10 +2084,10 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="43" t="s">
         <v>37</v>
       </c>
@@ -2102,10 +2103,10 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
@@ -2126,10 +2127,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="43" t="s">
         <v>36</v>
       </c>
@@ -2215,16 +2216,16 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="78">
         <v>6</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="26" t="s">
         <v>25</v>
       </c>
@@ -2254,10 +2255,10 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="43" t="s">
         <v>37</v>
       </c>
@@ -2286,10 +2287,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
@@ -2319,10 +2320,10 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="43" t="s">
         <v>36</v>
       </c>
@@ -2406,16 +2407,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
+      <c r="A27" s="78">
         <v>7</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="67"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="26" t="s">
         <v>25</v>
       </c>
@@ -2444,10 +2445,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="43" t="s">
         <v>37</v>
       </c>
@@ -2464,10 +2465,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2487,10 +2488,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="43" t="s">
         <v>36</v>
       </c>
@@ -2576,16 +2577,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+      <c r="A31" s="78">
         <v>8</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
@@ -2614,10 +2615,10 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="43" t="s">
         <v>37</v>
       </c>
@@ -2643,10 +2644,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="27" t="s">
         <v>27</v>
       </c>
@@ -2675,10 +2676,10 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="43" t="s">
         <v>36</v>
       </c>
@@ -2764,16 +2765,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="78">
         <v>9</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="67"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="26" t="s">
         <v>25</v>
       </c>
@@ -2803,10 +2804,10 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="43" t="s">
         <v>37</v>
       </c>
@@ -2822,10 +2823,10 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="27" t="s">
         <v>27</v>
       </c>
@@ -2845,10 +2846,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="43" t="s">
         <v>36</v>
       </c>
@@ -2934,16 +2935,16 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="A39" s="78">
         <v>10</v>
       </c>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="75"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="26" t="s">
         <v>25</v>
       </c>
@@ -2971,10 +2972,10 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="43" t="s">
         <v>37</v>
       </c>
@@ -3000,10 +3001,10 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="27" t="s">
         <v>27</v>
       </c>
@@ -3031,10 +3032,10 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="43" t="s">
         <v>36</v>
       </c>
@@ -3120,16 +3121,16 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
+      <c r="A43" s="78">
         <v>11</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="67"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="26" t="s">
         <v>25</v>
       </c>
@@ -3156,10 +3157,10 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="43" t="s">
         <v>37</v>
       </c>
@@ -3176,10 +3177,10 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
       <c r="E45" s="27" t="s">
         <v>27</v>
       </c>
@@ -3195,10 +3196,10 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="43" t="s">
         <v>36</v>
       </c>
@@ -3284,16 +3285,16 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+      <c r="A47" s="78">
         <v>12</v>
       </c>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="75"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="26" t="s">
         <v>25</v>
       </c>
@@ -3319,10 +3320,10 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="43" t="s">
         <v>37</v>
       </c>
@@ -3348,10 +3349,10 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="77"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="27" t="s">
         <v>27</v>
       </c>
@@ -3377,10 +3378,10 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="43" t="s">
         <v>36</v>
       </c>
@@ -3466,16 +3467,16 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
+      <c r="A51" s="78">
         <v>13</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="67"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="26" t="s">
         <v>25</v>
       </c>
@@ -3501,10 +3502,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
       <c r="E52" s="43" t="s">
         <v>37</v>
       </c>
@@ -3520,10 +3521,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
       <c r="E53" s="27" t="s">
         <v>27</v>
       </c>
@@ -3539,10 +3540,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="43" t="s">
         <v>36</v>
       </c>
@@ -3628,16 +3629,16 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="78">
         <v>14</v>
       </c>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="75"/>
+      <c r="D55" s="72"/>
       <c r="E55" s="26" t="s">
         <v>25</v>
       </c>
@@ -3664,10 +3665,10 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="43" t="s">
         <v>37</v>
       </c>
@@ -3693,10 +3694,10 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="77"/>
+      <c r="A57" s="78"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="27" t="s">
         <v>27</v>
       </c>
@@ -3723,10 +3724,10 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
+      <c r="A58" s="78"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="43" t="s">
         <v>36</v>
       </c>
@@ -3812,14 +3813,14 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
+      <c r="A59" s="78">
         <v>15</v>
       </c>
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="26" t="s">
         <v>25</v>
       </c>
@@ -3845,10 +3846,10 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
       <c r="E60" s="43" t="s">
         <v>37</v>
       </c>
@@ -3864,10 +3865,10 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="27" t="s">
         <v>27</v>
       </c>
@@ -3883,10 +3884,10 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="43" t="s">
         <v>36</v>
       </c>
@@ -3972,12 +3973,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="82" t="s">
+      <c r="A63" s="87"/>
+      <c r="B63" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
@@ -4063,10 +4064,10 @@
       <c r="CG63" s="37"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -4151,51 +4152,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="BJ1:BQ1"/>
@@ -4212,6 +4168,51 @@
     <mergeCell ref="C47:D50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>Nr.</t>
   </si>
@@ -134,7 +134,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">6h / </t>
+    <t>4h /  4h</t>
+  </si>
+  <si>
+    <t>6h /  7h</t>
   </si>
 </sst>
 </file>
@@ -529,6 +532,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -537,6 +558,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -559,56 +607,11 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -924,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK28" sqref="AK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +971,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -979,109 +982,109 @@
       <c r="E1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="82">
+      <c r="F1" s="64">
         <v>31.01</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="64">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="82">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="64">
         <v>6.02</v>
       </c>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="82">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="64">
         <v>7.02</v>
       </c>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="82">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="64">
         <v>19.02</v>
       </c>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="82">
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="64">
         <v>20.02</v>
       </c>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="82" t="s">
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="64">
+        <v>21.02</v>
+      </c>
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="82" t="s">
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BK1" s="83"/>
-      <c r="BL1" s="83"/>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="83"/>
-      <c r="BQ1" s="84"/>
-      <c r="BR1" s="82" t="s">
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="65"/>
+      <c r="BX1" s="65"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="83"/>
-      <c r="BT1" s="83"/>
-      <c r="BU1" s="83"/>
-      <c r="BV1" s="83"/>
-      <c r="BW1" s="83"/>
-      <c r="BX1" s="83"/>
-      <c r="BY1" s="84"/>
-      <c r="BZ1" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA1" s="83"/>
-      <c r="CB1" s="83"/>
-      <c r="CC1" s="83"/>
-      <c r="CD1" s="83"/>
-      <c r="CE1" s="83"/>
-      <c r="CF1" s="83"/>
-      <c r="CG1" s="84"/>
+      <c r="CA1" s="65"/>
+      <c r="CB1" s="65"/>
+      <c r="CC1" s="65"/>
+      <c r="CD1" s="65"/>
+      <c r="CE1" s="65"/>
+      <c r="CF1" s="65"/>
+      <c r="CG1" s="66"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1334,21 +1337,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
+      <c r="A3" s="70">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
@@ -1371,10 +1374,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="43" t="s">
         <v>37</v>
       </c>
@@ -1392,10 +1395,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="27" t="s">
         <v>27</v>
       </c>
@@ -1411,10 +1414,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="43" t="s">
         <v>36</v>
       </c>
@@ -1500,16 +1503,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="70">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="26" t="s">
         <v>25</v>
       </c>
@@ -1521,14 +1524,8 @@
       <c r="AC7" s="17"/>
       <c r="AD7" s="15"/>
       <c r="AK7" s="17"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="49"/>
+      <c r="AL7" s="15"/>
+      <c r="AS7" s="17"/>
       <c r="AT7" s="15"/>
       <c r="BA7" s="17"/>
       <c r="BB7" s="15"/>
@@ -1541,10 +1538,10 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="43" t="s">
         <v>37</v>
       </c>
@@ -1570,10 +1567,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="27" t="s">
         <v>27</v>
       </c>
@@ -1585,14 +1582,8 @@
       <c r="AC9" s="20"/>
       <c r="AD9" s="18"/>
       <c r="AK9" s="20"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="52"/>
+      <c r="AL9" s="18"/>
+      <c r="AS9" s="20"/>
       <c r="AT9" s="18"/>
       <c r="BA9" s="20"/>
       <c r="BB9" s="18"/>
@@ -1605,10 +1596,10 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
@@ -1694,16 +1685,16 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="70">
         <v>3</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="61"/>
+      <c r="C11" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="67"/>
       <c r="E11" s="39" t="s">
         <v>25</v>
       </c>
@@ -1732,10 +1723,10 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="40" t="s">
         <v>26</v>
       </c>
@@ -1755,10 +1746,10 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="41" t="s">
         <v>27</v>
       </c>
@@ -1778,10 +1769,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="40" t="s">
         <v>36</v>
       </c>
@@ -1867,16 +1858,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="70">
         <v>4</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="72"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1901,10 +1892,10 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="43" t="s">
         <v>37</v>
       </c>
@@ -1929,16 +1920,16 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="27" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="46"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -1961,10 +1952,10 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="43" t="s">
         <v>36</v>
       </c>
@@ -2050,16 +2041,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="70">
         <v>5</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="61"/>
+      <c r="C19" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="67"/>
       <c r="E19" s="26" t="s">
         <v>25</v>
       </c>
@@ -2084,10 +2075,10 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="43" t="s">
         <v>37</v>
       </c>
@@ -2103,10 +2094,10 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="27" t="s">
         <v>27</v>
       </c>
@@ -2127,10 +2118,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="43" t="s">
         <v>36</v>
       </c>
@@ -2216,16 +2207,16 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="70">
         <v>6</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="72"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="26" t="s">
         <v>25</v>
       </c>
@@ -2255,10 +2246,10 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="43" t="s">
         <v>37</v>
       </c>
@@ -2287,10 +2278,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="27" t="s">
         <v>27</v>
       </c>
@@ -2320,10 +2311,10 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="43" t="s">
         <v>36</v>
       </c>
@@ -2407,16 +2398,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78">
+      <c r="A27" s="70">
         <v>7</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="26" t="s">
         <v>25</v>
       </c>
@@ -2445,10 +2436,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="43" t="s">
         <v>37</v>
       </c>
@@ -2465,10 +2456,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2488,10 +2479,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="43" t="s">
         <v>36</v>
       </c>
@@ -2577,16 +2568,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78">
+      <c r="A31" s="70">
         <v>8</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="72"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="26" t="s">
         <v>25</v>
       </c>
@@ -2600,6 +2591,7 @@
       <c r="AF31" s="46"/>
       <c r="AG31" s="46"/>
       <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
       <c r="AK31" s="17"/>
       <c r="AL31" s="15"/>
       <c r="AS31" s="17"/>
@@ -2615,10 +2607,10 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="43" t="s">
         <v>37</v>
       </c>
@@ -2644,10 +2636,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="27" t="s">
         <v>27</v>
       </c>
@@ -2661,6 +2653,7 @@
       <c r="AF33" s="42"/>
       <c r="AG33" s="42"/>
       <c r="AH33" s="42"/>
+      <c r="AI33" s="42"/>
       <c r="AK33" s="20"/>
       <c r="AL33" s="18"/>
       <c r="AS33" s="20"/>
@@ -2676,10 +2669,10 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="43" t="s">
         <v>36</v>
       </c>
@@ -2765,16 +2758,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="78">
+      <c r="A35" s="70">
         <v>9</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="61"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="26" t="s">
         <v>25</v>
       </c>
@@ -2804,10 +2797,10 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="43" t="s">
         <v>37</v>
       </c>
@@ -2823,10 +2816,10 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="27" t="s">
         <v>27</v>
       </c>
@@ -2846,10 +2839,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="43" t="s">
         <v>36</v>
       </c>
@@ -2935,16 +2928,16 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78">
+      <c r="A39" s="70">
         <v>10</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="72"/>
+      <c r="D39" s="75"/>
       <c r="E39" s="26" t="s">
         <v>25</v>
       </c>
@@ -2972,10 +2965,10 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="43" t="s">
         <v>37</v>
       </c>
@@ -3001,10 +2994,10 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="27" t="s">
         <v>27</v>
       </c>
@@ -3032,10 +3025,10 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="43" t="s">
         <v>36</v>
       </c>
@@ -3121,16 +3114,16 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="78">
+      <c r="A43" s="70">
         <v>11</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="61"/>
+      <c r="D43" s="67"/>
       <c r="E43" s="26" t="s">
         <v>25</v>
       </c>
@@ -3157,10 +3150,10 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
       <c r="E44" s="43" t="s">
         <v>37</v>
       </c>
@@ -3177,10 +3170,10 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="27" t="s">
         <v>27</v>
       </c>
@@ -3196,10 +3189,10 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
       <c r="E46" s="43" t="s">
         <v>36</v>
       </c>
@@ -3285,16 +3278,16 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="78">
+      <c r="A47" s="70">
         <v>12</v>
       </c>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="72"/>
+      <c r="D47" s="75"/>
       <c r="E47" s="26" t="s">
         <v>25</v>
       </c>
@@ -3320,10 +3313,10 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="74"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="43" t="s">
         <v>37</v>
       </c>
@@ -3349,10 +3342,10 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="74"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="27" t="s">
         <v>27</v>
       </c>
@@ -3378,10 +3371,10 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="43" t="s">
         <v>36</v>
       </c>
@@ -3467,16 +3460,16 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="78">
+      <c r="A51" s="70">
         <v>13</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="61"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="26" t="s">
         <v>25</v>
       </c>
@@ -3502,10 +3495,10 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
       <c r="E52" s="43" t="s">
         <v>37</v>
       </c>
@@ -3521,10 +3514,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
       <c r="E53" s="27" t="s">
         <v>27</v>
       </c>
@@ -3540,10 +3533,10 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
       <c r="E54" s="43" t="s">
         <v>36</v>
       </c>
@@ -3629,16 +3622,16 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78">
+      <c r="A55" s="70">
         <v>14</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="72"/>
+      <c r="D55" s="75"/>
       <c r="E55" s="26" t="s">
         <v>25</v>
       </c>
@@ -3665,10 +3658,10 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="74"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="43" t="s">
         <v>37</v>
       </c>
@@ -3694,10 +3687,10 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="27" t="s">
         <v>27</v>
       </c>
@@ -3724,10 +3717,10 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
       <c r="E58" s="43" t="s">
         <v>36</v>
       </c>
@@ -3813,14 +3806,14 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="78">
+      <c r="A59" s="70">
         <v>15</v>
       </c>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="26" t="s">
         <v>25</v>
       </c>
@@ -3846,10 +3839,10 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="43" t="s">
         <v>37</v>
       </c>
@@ -3865,10 +3858,10 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="27" t="s">
         <v>27</v>
       </c>
@@ -3884,10 +3877,10 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="43" t="s">
         <v>36</v>
       </c>
@@ -3973,12 +3966,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="87"/>
-      <c r="B63" s="67" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
@@ -4064,10 +4057,10 @@
       <c r="CG63" s="37"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="87"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -4152,6 +4145,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="BJ1:BQ1"/>
@@ -4168,51 +4206,6 @@
     <mergeCell ref="C47:D50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
   <si>
     <t>Nr.</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>6h /  7h</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -927,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK28" sqref="AK28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,8 +1055,8 @@
       <c r="BG1" s="65"/>
       <c r="BH1" s="65"/>
       <c r="BI1" s="66"/>
-      <c r="BJ1" s="64" t="s">
-        <v>1</v>
+      <c r="BJ1" s="64">
+        <v>22.02</v>
       </c>
       <c r="BK1" s="65"/>
       <c r="BL1" s="65"/>
@@ -2447,7 +2450,9 @@
       <c r="U28" s="13"/>
       <c r="AA28" s="23"/>
       <c r="AC28" s="13"/>
-      <c r="AK28" s="13"/>
+      <c r="AK28" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="AS28" s="13"/>
       <c r="BA28" s="13"/>
       <c r="BI28" s="13"/>

--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>Nr.</t>
-  </si>
-  <si>
-    <t>dd.mm</t>
   </si>
   <si>
     <t xml:space="preserve">Datum
@@ -535,24 +532,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -561,33 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -610,11 +562,56 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -931,7 +928,7 @@
   <dimension ref="A1:CG64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO8" sqref="AO8"/>
+      <selection activeCell="C63" sqref="C63:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,129 +971,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25"/>
       <c r="D1" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="64">
+        <v>5</v>
+      </c>
+      <c r="F1" s="82">
         <v>31.01</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="64">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="82">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="64">
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="82">
         <v>6.02</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="64">
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="82">
         <v>7.02</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="64">
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="82">
         <v>19.02</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="64">
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="82">
         <v>20.02</v>
       </c>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="64">
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="82">
         <v>21.02</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="64">
+      <c r="BC1" s="83"/>
+      <c r="BD1" s="83"/>
+      <c r="BE1" s="83"/>
+      <c r="BF1" s="83"/>
+      <c r="BG1" s="83"/>
+      <c r="BH1" s="83"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="82">
         <v>22.02</v>
       </c>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="66"/>
-      <c r="BR1" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="65"/>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="66"/>
+      <c r="BK1" s="83"/>
+      <c r="BL1" s="83"/>
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="83"/>
+      <c r="BO1" s="83"/>
+      <c r="BP1" s="83"/>
+      <c r="BQ1" s="84"/>
+      <c r="BR1" s="82">
+        <v>23.02</v>
+      </c>
+      <c r="BS1" s="83"/>
+      <c r="BT1" s="83"/>
+      <c r="BU1" s="83"/>
+      <c r="BV1" s="83"/>
+      <c r="BW1" s="83"/>
+      <c r="BX1" s="83"/>
+      <c r="BY1" s="84"/>
+      <c r="BZ1" s="82">
+        <v>26.02</v>
+      </c>
+      <c r="CA1" s="83"/>
+      <c r="CB1" s="83"/>
+      <c r="CC1" s="83"/>
+      <c r="CD1" s="83"/>
+      <c r="CE1" s="83"/>
+      <c r="CF1" s="83"/>
+      <c r="CG1" s="84"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="81"/>
       <c r="B2" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1340,21 +1337,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
@@ -1377,12 +1374,12 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -1398,12 +1395,12 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="13"/>
       <c r="U5" s="13"/>
@@ -1417,12 +1414,12 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1506,18 +1503,18 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="75"/>
+      <c r="B7" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="72"/>
       <c r="E7" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="15"/>
       <c r="M7" s="17"/>
@@ -1541,12 +1538,12 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="18"/>
       <c r="M8" s="20"/>
@@ -1570,12 +1567,12 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="18"/>
       <c r="M9" s="20"/>
@@ -1599,12 +1596,12 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
@@ -1688,18 +1685,18 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="78">
         <v>3</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="67"/>
+      <c r="B11" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="61"/>
       <c r="E11" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="9"/>
       <c r="N11" s="55"/>
@@ -1726,12 +1723,12 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="56"/>
       <c r="O12" s="23"/>
@@ -1749,12 +1746,12 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="57"/>
       <c r="U13" s="13"/>
@@ -1772,12 +1769,12 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1861,18 +1858,18 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+      <c r="A15" s="78">
         <v>4</v>
       </c>
-      <c r="B15" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="75"/>
+      <c r="B15" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="72"/>
       <c r="E15" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="15"/>
@@ -1895,12 +1892,12 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="18"/>
@@ -1923,16 +1920,16 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="86"/>
       <c r="J17" s="46"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -1955,12 +1952,12 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
@@ -2044,18 +2041,18 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70">
+      <c r="A19" s="78">
         <v>5</v>
       </c>
-      <c r="B19" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="67"/>
+      <c r="B19" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="61"/>
       <c r="E19" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="9"/>
       <c r="N19" s="55"/>
@@ -2078,12 +2075,12 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N20" s="53"/>
       <c r="U20" s="13"/>
@@ -2097,12 +2094,12 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
@@ -2121,12 +2118,12 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -2210,18 +2207,18 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="70">
+      <c r="A23" s="78">
         <v>6</v>
       </c>
-      <c r="B23" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="75"/>
+      <c r="B23" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="72"/>
       <c r="E23" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="15"/>
       <c r="M23" s="17"/>
@@ -2249,12 +2246,12 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="18"/>
       <c r="M24" s="20"/>
@@ -2281,12 +2278,12 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18"/>
       <c r="M25" s="20"/>
@@ -2314,12 +2311,12 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="19"/>
@@ -2401,18 +2398,18 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70">
+      <c r="A27" s="78">
         <v>7</v>
       </c>
-      <c r="B27" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="67"/>
+      <c r="B27" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="61"/>
       <c r="E27" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="9"/>
       <c r="M27" s="11"/>
@@ -2439,19 +2436,19 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M28" s="13"/>
       <c r="U28" s="13"/>
       <c r="AA28" s="23"/>
       <c r="AC28" s="13"/>
       <c r="AK28" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AS28" s="13"/>
       <c r="BA28" s="13"/>
@@ -2461,12 +2458,12 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M29" s="13"/>
       <c r="U29" s="13"/>
@@ -2484,12 +2481,12 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -2573,18 +2570,18 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="70">
+      <c r="A31" s="78">
         <v>8</v>
       </c>
-      <c r="B31" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="75"/>
+      <c r="B31" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="72"/>
       <c r="E31" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="15"/>
       <c r="M31" s="17"/>
@@ -2612,12 +2609,12 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="18"/>
       <c r="M32" s="20"/>
@@ -2641,12 +2638,12 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18"/>
       <c r="M33" s="20"/>
@@ -2674,12 +2671,12 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
@@ -2763,18 +2760,18 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="70">
+      <c r="A35" s="78">
         <v>9</v>
       </c>
-      <c r="B35" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="67"/>
+      <c r="B35" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="61"/>
       <c r="E35" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35" s="9"/>
       <c r="M35" s="11"/>
@@ -2802,12 +2799,12 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M36" s="13"/>
       <c r="U36" s="13"/>
@@ -2821,12 +2818,12 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M37" s="13"/>
       <c r="U37" s="13"/>
@@ -2844,12 +2841,12 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -2933,18 +2930,18 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70">
+      <c r="A39" s="78">
         <v>10</v>
       </c>
-      <c r="B39" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="75"/>
+      <c r="B39" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="72"/>
       <c r="E39" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39" s="15"/>
       <c r="M39" s="17"/>
@@ -2970,12 +2967,12 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18"/>
       <c r="M40" s="20"/>
@@ -2999,12 +2996,12 @@
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="77"/>
+      <c r="A41" s="78"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18"/>
       <c r="M41" s="20"/>
@@ -3030,12 +3027,12 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="19"/>
@@ -3119,18 +3116,18 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="70">
+      <c r="A43" s="78">
         <v>11</v>
       </c>
-      <c r="B43" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="67" t="s">
+      <c r="B43" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="61"/>
+      <c r="E43" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="F43" s="9"/>
       <c r="M43" s="46"/>
@@ -3155,12 +3152,12 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
       <c r="E44" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M44" s="59"/>
       <c r="N44" s="23"/>
@@ -3175,12 +3172,12 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
+      <c r="A45" s="78"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
       <c r="E45" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M45" s="13"/>
       <c r="U45" s="13"/>
@@ -3194,12 +3191,12 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -3283,18 +3280,18 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70">
+      <c r="A47" s="78">
         <v>12</v>
       </c>
-      <c r="B47" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="75"/>
+      <c r="B47" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="72"/>
       <c r="E47" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" s="15"/>
       <c r="M47" s="17"/>
@@ -3318,12 +3315,12 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" s="18"/>
       <c r="M48" s="20"/>
@@ -3347,12 +3344,12 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="77"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18"/>
       <c r="M49" s="20"/>
@@ -3376,12 +3373,12 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
       <c r="E50" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="19"/>
@@ -3465,18 +3462,18 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="70">
+      <c r="A51" s="78">
         <v>13</v>
       </c>
-      <c r="B51" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="67"/>
+      <c r="B51" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="61"/>
       <c r="E51" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51" s="9"/>
       <c r="M51" s="11"/>
@@ -3500,12 +3497,12 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
       <c r="E52" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M52" s="13"/>
       <c r="U52" s="13"/>
@@ -3519,12 +3516,12 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
       <c r="E53" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M53" s="13"/>
       <c r="U53" s="13"/>
@@ -3538,12 +3535,12 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
@@ -3627,18 +3624,18 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70">
+      <c r="A55" s="78">
         <v>14</v>
       </c>
-      <c r="B55" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="75"/>
+      <c r="B55" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="72"/>
       <c r="E55" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F55" s="48"/>
       <c r="G55" s="46"/>
@@ -3663,12 +3660,12 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" s="47"/>
       <c r="M56" s="20"/>
@@ -3692,12 +3689,12 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="77"/>
+      <c r="A57" s="78"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F57" s="48"/>
       <c r="G57" s="46"/>
@@ -3722,12 +3719,12 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
+      <c r="A58" s="78"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" s="47"/>
       <c r="G58" s="19"/>
@@ -3811,16 +3808,16 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
+      <c r="A59" s="78">
         <v>15</v>
       </c>
-      <c r="B59" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
+      <c r="B59" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F59" s="9"/>
       <c r="M59" s="11"/>
@@ -3844,12 +3841,12 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
       <c r="E60" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M60" s="13"/>
       <c r="U60" s="13"/>
@@ -3863,12 +3860,12 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
       <c r="E61" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M61" s="13"/>
       <c r="U61" s="13"/>
@@ -3882,12 +3879,12 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
@@ -3971,12 +3968,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
+      <c r="A63" s="87"/>
+      <c r="B63" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
@@ -3986,7 +3983,7 @@
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
       <c r="M63" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N63" s="31"/>
       <c r="O63" s="32"/>
@@ -4062,10 +4059,10 @@
       <c r="CG63" s="37"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -4150,51 +4147,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="BJ1:BQ1"/>
@@ -4211,6 +4163,51 @@
     <mergeCell ref="C47:D50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/210_Gantt-Diagramm_Joey_Nico.110.xlsx
@@ -9,13 +9,12 @@
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>Nr.</t>
   </si>
@@ -103,24 +102,6 @@
     <t>3h / 3h</t>
   </si>
   <si>
-    <t>6h /</t>
-  </si>
-  <si>
-    <t>8h /</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4h / </t>
-  </si>
-  <si>
-    <t>5h /</t>
-  </si>
-  <si>
-    <t>3h /</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3h / </t>
-  </si>
-  <si>
     <t>2h / 1h</t>
   </si>
   <si>
@@ -138,6 +119,27 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>8h / 0h</t>
+  </si>
+  <si>
+    <t>6h / 0h</t>
+  </si>
+  <si>
+    <t>5h / 5h</t>
+  </si>
+  <si>
+    <t>3h / 4h</t>
+  </si>
+  <si>
+    <t>4h / 5h</t>
+  </si>
+  <si>
+    <t>8h / 7h</t>
+  </si>
+  <si>
+    <t>6h / 5h</t>
   </si>
 </sst>
 </file>
@@ -532,6 +534,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -540,6 +560,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -562,56 +609,11 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -927,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63:D64"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +973,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -982,109 +984,109 @@
       <c r="E1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="82">
+      <c r="F1" s="64">
         <v>31.01</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="82">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="64">
         <v>5.0199999999999996</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="82">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="64">
         <v>6.02</v>
       </c>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="82">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="64">
         <v>7.02</v>
       </c>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="82">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="64">
         <v>19.02</v>
       </c>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="82">
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="64">
         <v>20.02</v>
       </c>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="82">
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="64">
         <v>21.02</v>
       </c>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="82">
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="64">
         <v>22.02</v>
       </c>
-      <c r="BK1" s="83"/>
-      <c r="BL1" s="83"/>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="83"/>
-      <c r="BQ1" s="84"/>
-      <c r="BR1" s="82">
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="64">
         <v>23.02</v>
       </c>
-      <c r="BS1" s="83"/>
-      <c r="BT1" s="83"/>
-      <c r="BU1" s="83"/>
-      <c r="BV1" s="83"/>
-      <c r="BW1" s="83"/>
-      <c r="BX1" s="83"/>
-      <c r="BY1" s="84"/>
-      <c r="BZ1" s="82">
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="65"/>
+      <c r="BX1" s="65"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="64">
         <v>26.02</v>
       </c>
-      <c r="CA1" s="83"/>
-      <c r="CB1" s="83"/>
-      <c r="CC1" s="83"/>
-      <c r="CD1" s="83"/>
-      <c r="CE1" s="83"/>
-      <c r="CF1" s="83"/>
-      <c r="CG1" s="84"/>
+      <c r="CA1" s="65"/>
+      <c r="CB1" s="65"/>
+      <c r="CC1" s="65"/>
+      <c r="CD1" s="65"/>
+      <c r="CE1" s="65"/>
+      <c r="CF1" s="65"/>
+      <c r="CG1" s="66"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
@@ -1337,21 +1339,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
+      <c r="A3" s="70">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="42"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
@@ -1374,12 +1376,12 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -1395,10 +1397,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="27" t="s">
         <v>26</v>
       </c>
@@ -1414,12 +1416,12 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1503,16 +1505,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="70">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="72"/>
+      <c r="C7" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="75"/>
       <c r="E7" s="26" t="s">
         <v>24</v>
       </c>
@@ -1538,12 +1540,12 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" s="18"/>
       <c r="M8" s="20"/>
@@ -1555,7 +1557,13 @@
       <c r="AK8" s="20"/>
       <c r="AL8" s="18"/>
       <c r="AS8" s="20"/>
-      <c r="AT8" s="18"/>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
       <c r="BA8" s="20"/>
       <c r="BB8" s="18"/>
       <c r="BI8" s="20"/>
@@ -1567,10 +1575,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="27" t="s">
         <v>26</v>
       </c>
@@ -1596,12 +1604,12 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
@@ -1643,13 +1651,13 @@
       <c r="AQ10" s="19"/>
       <c r="AR10" s="19"/>
       <c r="AS10" s="20"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="19"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="23"/>
+      <c r="AV10" s="23"/>
+      <c r="AW10" s="23"/>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="23"/>
       <c r="BA10" s="20"/>
       <c r="BB10" s="18"/>
       <c r="BC10" s="19"/>
@@ -1685,16 +1693,16 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="70">
         <v>3</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="61"/>
+      <c r="C11" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="67"/>
       <c r="E11" s="39" t="s">
         <v>24</v>
       </c>
@@ -1723,10 +1731,10 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
@@ -1746,10 +1754,10 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="41" t="s">
         <v>26</v>
       </c>
@@ -1769,12 +1777,12 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1858,16 +1866,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="70">
         <v>4</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="72"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="26" t="s">
         <v>24</v>
       </c>
@@ -1892,12 +1900,12 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="18"/>
@@ -1920,16 +1928,16 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="46"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
@@ -1952,12 +1960,12 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
@@ -2041,16 +2049,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78">
+      <c r="A19" s="70">
         <v>5</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="61"/>
+      <c r="C19" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="67"/>
       <c r="E19" s="26" t="s">
         <v>24</v>
       </c>
@@ -2075,12 +2083,12 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N20" s="53"/>
       <c r="U20" s="13"/>
@@ -2094,10 +2102,10 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="27" t="s">
         <v>26</v>
       </c>
@@ -2118,12 +2126,12 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -2134,7 +2142,7 @@
       <c r="L22" s="50"/>
       <c r="M22" s="51"/>
       <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="O22" s="12"/>
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="12"/>
@@ -2207,16 +2215,16 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78">
+      <c r="A23" s="70">
         <v>6</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="72"/>
+      <c r="C23" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="75"/>
       <c r="E23" s="26" t="s">
         <v>24</v>
       </c>
@@ -2246,12 +2254,12 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F24" s="18"/>
       <c r="M24" s="20"/>
@@ -2278,10 +2286,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="27" t="s">
         <v>26</v>
       </c>
@@ -2311,12 +2319,12 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="19"/>
@@ -2398,16 +2406,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78">
+      <c r="A27" s="70">
         <v>7</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="61"/>
+      <c r="C27" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="67"/>
       <c r="E27" s="26" t="s">
         <v>24</v>
       </c>
@@ -2436,19 +2444,23 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M28" s="13"/>
       <c r="U28" s="13"/>
       <c r="AA28" s="23"/>
       <c r="AC28" s="13"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
       <c r="AK28" s="13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AS28" s="13"/>
       <c r="BA28" s="13"/>
@@ -2458,10 +2470,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="27" t="s">
         <v>26</v>
       </c>
@@ -2481,12 +2493,12 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -2512,10 +2524,10 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
       <c r="AC30" s="13"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="12"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
       <c r="AH30" s="12"/>
       <c r="AI30" s="12"/>
       <c r="AJ30" s="12"/>
@@ -2570,16 +2582,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78">
+      <c r="A31" s="70">
         <v>8</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="72"/>
+      <c r="C31" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="75"/>
       <c r="E31" s="26" t="s">
         <v>24</v>
       </c>
@@ -2609,12 +2621,12 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
+      <c r="A32" s="70"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18"/>
       <c r="M32" s="20"/>
@@ -2624,7 +2636,10 @@
       <c r="AC32" s="20"/>
       <c r="AD32" s="18"/>
       <c r="AK32" s="20"/>
-      <c r="AL32" s="18"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="23"/>
+      <c r="AN32" s="23"/>
+      <c r="AO32" s="23"/>
       <c r="AS32" s="20"/>
       <c r="AT32" s="18"/>
       <c r="BA32" s="20"/>
@@ -2638,10 +2653,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="27" t="s">
         <v>26</v>
       </c>
@@ -2671,12 +2686,12 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
@@ -2710,10 +2725,10 @@
       <c r="AI34" s="19"/>
       <c r="AJ34" s="19"/>
       <c r="AK34" s="20"/>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="19"/>
-      <c r="AN34" s="19"/>
-      <c r="AO34" s="19"/>
+      <c r="AL34" s="47"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
       <c r="AP34" s="19"/>
       <c r="AQ34" s="19"/>
       <c r="AR34" s="19"/>
@@ -2760,16 +2775,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="78">
+      <c r="A35" s="70">
         <v>9</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="61"/>
+      <c r="C35" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="67"/>
       <c r="E35" s="26" t="s">
         <v>24</v>
       </c>
@@ -2799,12 +2814,12 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M36" s="13"/>
       <c r="U36" s="13"/>
@@ -2813,15 +2828,20 @@
       <c r="AS36" s="13"/>
       <c r="BA36" s="13"/>
       <c r="BI36" s="13"/>
+      <c r="BJ36" s="23"/>
+      <c r="BK36" s="23"/>
+      <c r="BL36" s="23"/>
+      <c r="BM36" s="23"/>
+      <c r="BN36" s="23"/>
       <c r="BQ36" s="13"/>
       <c r="BY36" s="13"/>
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="27" t="s">
         <v>26</v>
       </c>
@@ -2841,12 +2861,12 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -2904,11 +2924,11 @@
       <c r="BG38" s="12"/>
       <c r="BH38" s="12"/>
       <c r="BI38" s="13"/>
-      <c r="BJ38" s="12"/>
-      <c r="BK38" s="12"/>
-      <c r="BL38" s="12"/>
-      <c r="BM38" s="12"/>
-      <c r="BN38" s="12"/>
+      <c r="BJ38" s="23"/>
+      <c r="BK38" s="23"/>
+      <c r="BL38" s="23"/>
+      <c r="BM38" s="23"/>
+      <c r="BN38" s="23"/>
       <c r="BO38" s="12"/>
       <c r="BP38" s="12"/>
       <c r="BQ38" s="13"/>
@@ -2930,16 +2950,16 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78">
+      <c r="A39" s="70">
         <v>10</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="72"/>
+      <c r="C39" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="75"/>
       <c r="E39" s="26" t="s">
         <v>24</v>
       </c>
@@ -2967,12 +2987,12 @@
       <c r="CG39" s="17"/>
     </row>
     <row r="40" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F40" s="18"/>
       <c r="M40" s="20"/>
@@ -2989,17 +3009,18 @@
       <c r="BB40" s="18"/>
       <c r="BI40" s="20"/>
       <c r="BJ40" s="18"/>
-      <c r="BQ40" s="20"/>
+      <c r="BP40" s="23"/>
+      <c r="BQ40" s="60"/>
       <c r="BR40" s="18"/>
       <c r="BY40" s="20"/>
       <c r="BZ40" s="18"/>
       <c r="CG40" s="20"/>
     </row>
     <row r="41" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="27" t="s">
         <v>26</v>
       </c>
@@ -3027,12 +3048,12 @@
       <c r="CG41" s="20"/>
     </row>
     <row r="42" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
       <c r="E42" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="19"/>
@@ -3096,8 +3117,8 @@
       <c r="BM42" s="19"/>
       <c r="BN42" s="19"/>
       <c r="BO42" s="19"/>
-      <c r="BP42" s="19"/>
-      <c r="BQ42" s="20"/>
+      <c r="BP42" s="23"/>
+      <c r="BQ42" s="60"/>
       <c r="BR42" s="18"/>
       <c r="BS42" s="19"/>
       <c r="BT42" s="19"/>
@@ -3116,16 +3137,16 @@
       <c r="CG42" s="20"/>
     </row>
     <row r="43" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="78">
+      <c r="A43" s="70">
         <v>11</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="61"/>
+      <c r="D43" s="67"/>
       <c r="E43" s="26" t="s">
         <v>24</v>
       </c>
@@ -3152,12 +3173,12 @@
       <c r="CG43" s="11"/>
     </row>
     <row r="44" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
       <c r="E44" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M44" s="59"/>
       <c r="N44" s="23"/>
@@ -3172,10 +3193,10 @@
       <c r="CG44" s="13"/>
     </row>
     <row r="45" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="27" t="s">
         <v>26</v>
       </c>
@@ -3191,12 +3212,12 @@
       <c r="CG45" s="13"/>
     </row>
     <row r="46" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
       <c r="E46" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
@@ -3280,16 +3301,16 @@
       <c r="CG46" s="13"/>
     </row>
     <row r="47" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="78">
+      <c r="A47" s="70">
         <v>12</v>
       </c>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="72"/>
+      <c r="C47" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="75"/>
       <c r="E47" s="26" t="s">
         <v>24</v>
       </c>
@@ -3315,12 +3336,12 @@
       <c r="CG47" s="17"/>
     </row>
     <row r="48" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="74"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18"/>
       <c r="M48" s="20"/>
@@ -3344,10 +3365,10 @@
       <c r="CG48" s="20"/>
     </row>
     <row r="49" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="74"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="27" t="s">
         <v>26</v>
       </c>
@@ -3373,12 +3394,12 @@
       <c r="CG49" s="20"/>
     </row>
     <row r="50" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="19"/>
@@ -3462,16 +3483,16 @@
       <c r="CG50" s="20"/>
     </row>
     <row r="51" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="78">
+      <c r="A51" s="70">
         <v>13</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="61"/>
+      <c r="C51" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="67"/>
       <c r="E51" s="26" t="s">
         <v>24</v>
       </c>
@@ -3497,12 +3518,12 @@
       <c r="CG51" s="11"/>
     </row>
     <row r="52" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
       <c r="E52" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M52" s="13"/>
       <c r="U52" s="13"/>
@@ -3516,10 +3537,10 @@
       <c r="CG52" s="13"/>
     </row>
     <row r="53" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
       <c r="E53" s="27" t="s">
         <v>26</v>
       </c>
@@ -3535,12 +3556,12 @@
       <c r="CG53" s="13"/>
     </row>
     <row r="54" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
       <c r="E54" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
@@ -3624,16 +3645,16 @@
       <c r="CG54" s="13"/>
     </row>
     <row r="55" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78">
+      <c r="A55" s="70">
         <v>14</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="72"/>
+      <c r="C55" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="75"/>
       <c r="E55" s="26" t="s">
         <v>24</v>
       </c>
@@ -3660,12 +3681,12 @@
       <c r="CG55" s="17"/>
     </row>
     <row r="56" spans="1:85" s="19" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="74"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F56" s="47"/>
       <c r="M56" s="20"/>
@@ -3689,10 +3710,10 @@
       <c r="CG56" s="20"/>
     </row>
     <row r="57" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="27" t="s">
         <v>26</v>
       </c>
@@ -3719,12 +3740,12 @@
       <c r="CG57" s="20"/>
     </row>
     <row r="58" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
       <c r="E58" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F58" s="47"/>
       <c r="G58" s="19"/>
@@ -3808,14 +3829,14 @@
       <c r="CG58" s="20"/>
     </row>
     <row r="59" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="78">
+      <c r="A59" s="70">
         <v>15</v>
       </c>
-      <c r="B59" s="75" t="s">
+      <c r="B59" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="26" t="s">
         <v>24</v>
       </c>
@@ -3841,12 +3862,12 @@
       <c r="CG59" s="11"/>
     </row>
     <row r="60" spans="1:85" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M60" s="13"/>
       <c r="U60" s="13"/>
@@ -3860,10 +3881,10 @@
       <c r="CG60" s="13"/>
     </row>
     <row r="61" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="27" t="s">
         <v>26</v>
       </c>
@@ -3879,12 +3900,12 @@
       <c r="CG61" s="13"/>
     </row>
     <row r="62" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
@@ -3968,12 +3989,12 @@
       <c r="CG62" s="13"/>
     </row>
     <row r="63" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="87"/>
-      <c r="B63" s="67" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
       <c r="E63" s="30"/>
       <c r="F63" s="31"/>
       <c r="G63" s="32"/>
@@ -4059,10 +4080,10 @@
       <c r="CG63" s="37"/>
     </row>
     <row r="64" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="87"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="35"/>
@@ -4147,6 +4168,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C51:D54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="C55:D58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:D62"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="BJ1:BQ1"/>
@@ -4163,51 +4229,6 @@
     <mergeCell ref="C47:D50"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C51:D54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C55:D58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:D62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
